--- a/PLANO DEL SISTEMA- CINE2.xlsx
+++ b/PLANO DEL SISTEMA- CINE2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis archivos\Quinto semestre\Simulación\Unidad 5\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Hernandez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39EA52F4-E620-4498-BB6A-148A36AA1911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>DULCERIA</t>
   </si>
@@ -44,7 +41,61 @@
     <t xml:space="preserve">TAQUILLA </t>
   </si>
   <si>
+    <t>TAQUILLA AUTOMATICA</t>
+  </si>
+  <si>
+    <t>CAFETERIA</t>
+  </si>
+  <si>
+    <t>ENTRADA SALAS</t>
+  </si>
+  <si>
     <t>SALAS</t>
+  </si>
+  <si>
+    <t>Personas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada fila </t>
+  </si>
+  <si>
+    <t>Salida fila</t>
+  </si>
+  <si>
+    <t>Numero de taquilla</t>
+  </si>
+  <si>
+    <t>Entrada taquilla</t>
+  </si>
+  <si>
+    <t>Salida taquilla</t>
+  </si>
+  <si>
+    <t>Número de taquilla</t>
+  </si>
+  <si>
+    <t>Número de caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada dulcería </t>
+  </si>
+  <si>
+    <t>Salida dulcería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada cafeteria </t>
+  </si>
+  <si>
+    <t>Salida cafeteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrada salas </t>
+  </si>
+  <si>
+    <t>Salida salas</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>FILA DULCERIA</t>
@@ -190,6 +241,12 @@
   <si>
     <t>Cafeteria</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Total P.</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +275,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +286,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8EAADB"/>
         <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADB9CA"/>
+        <bgColor rgb="FFADB9CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -256,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -277,6 +340,43 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -375,11 +475,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,77 +498,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -893,152 +1033,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="48" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AL23" sqref="AL23"/>
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" customWidth="1"/>
-    <col min="26" max="32" width="9.7109375" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="36" width="9.7109375" customWidth="1"/>
-    <col min="37" max="38" width="10.7109375" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" customWidth="1"/>
-    <col min="40" max="40" width="8.42578125" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" customWidth="1"/>
+    <col min="5" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" customWidth="1"/>
+    <col min="18" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" customWidth="1"/>
+    <col min="26" max="32" width="9.77734375" customWidth="1"/>
+    <col min="33" max="33" width="8.21875" customWidth="1"/>
+    <col min="34" max="36" width="9.77734375" customWidth="1"/>
+    <col min="37" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="39" width="9.5546875" customWidth="1"/>
+    <col min="40" max="40" width="8.44140625" customWidth="1"/>
+    <col min="41" max="41" width="7.77734375" customWidth="1"/>
+    <col min="42" max="42" width="10.77734375" customWidth="1"/>
     <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" customWidth="1"/>
-    <col min="45" max="46" width="10.7109375" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" customWidth="1"/>
-    <col min="48" max="48" width="8.7109375" customWidth="1"/>
-    <col min="49" max="49" width="7.7109375" customWidth="1"/>
-    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="9.21875" customWidth="1"/>
+    <col min="45" max="46" width="10.77734375" customWidth="1"/>
+    <col min="47" max="47" width="9.21875" customWidth="1"/>
+    <col min="48" max="48" width="8.77734375" customWidth="1"/>
+    <col min="49" max="49" width="7.77734375" customWidth="1"/>
+    <col min="50" max="50" width="10.77734375" customWidth="1"/>
     <col min="51" max="51" width="11" customWidth="1"/>
-    <col min="52" max="53" width="10.7109375" customWidth="1"/>
-    <col min="54" max="54" width="8.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" customWidth="1"/>
+    <col min="52" max="53" width="10.77734375" customWidth="1"/>
+    <col min="54" max="54" width="8.21875" customWidth="1"/>
+    <col min="55" max="55" width="9.77734375" customWidth="1"/>
     <col min="56" max="56" width="8" customWidth="1"/>
-    <col min="57" max="58" width="9.7109375" customWidth="1"/>
-    <col min="59" max="60" width="10.7109375" customWidth="1"/>
-    <col min="61" max="61" width="9.7109375" customWidth="1"/>
-    <col min="62" max="63" width="8.85546875" customWidth="1"/>
+    <col min="57" max="58" width="9.77734375" customWidth="1"/>
+    <col min="59" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="9.77734375" customWidth="1"/>
+    <col min="62" max="63" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:65" ht="14.25" customHeight="1">
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
     </row>
     <row r="2" spans="4:65" ht="14.25" customHeight="1">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
     </row>
     <row r="3" spans="4:65" ht="14.25" customHeight="1">
       <c r="D3" s="2">
@@ -1074,1802 +1164,3820 @@
       <c r="N3" s="2">
         <v>11</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="20"/>
+      <c r="U3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AD3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="47"/>
+      <c r="AM3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="47"/>
+      <c r="AU3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="47"/>
+      <c r="BB3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="44"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
     </row>
     <row r="4" spans="4:65" ht="14.25" customHeight="1">
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BK4" s="21"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
+      <c r="U4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AD4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
     </row>
     <row r="5" spans="4:65" ht="14.25" customHeight="1">
-      <c r="S5" s="33"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="23"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20"/>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AG5" s="13">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="13">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AO5" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AW5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AX5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AY5" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC5" s="13">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="BD5" s="13">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="BE5" s="13">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="BF5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="58"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="37"/>
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="34"/>
     </row>
     <row r="6" spans="4:65" ht="14.25" customHeight="1">
-      <c r="S6" s="33"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="37"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="37"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="20"/>
-      <c r="BM6" s="20"/>
+      <c r="T6" s="7">
+        <v>2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="X6" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="13">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="13">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="AW6" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AX6" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AY6" s="13">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="13">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="BD6" s="13">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="BE6" s="13">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="BF6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="37"/>
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="34"/>
+      <c r="BM6" s="34"/>
     </row>
     <row r="7" spans="4:65" ht="14.25" customHeight="1">
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="T7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="42"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="23"/>
-      <c r="BJ7" s="23"/>
-      <c r="BK7" s="23"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
+      <c r="U7" s="8">
+        <v>4</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="X7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>3</v>
+      </c>
+      <c r="AU7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AW7" s="13">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AX7" s="13">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AY7" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>3</v>
+      </c>
+      <c r="BB7" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="13">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="BD7" s="13">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="BF7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="34"/>
+      <c r="BM7" s="34"/>
     </row>
     <row r="8" spans="4:65" ht="14.25" customHeight="1">
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="22"/>
-      <c r="BI8" s="23"/>
-      <c r="BJ8" s="23"/>
-      <c r="BK8" s="23"/>
-      <c r="BL8" s="20"/>
-      <c r="BM8" s="20"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="T8" s="7">
+        <v>4</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="AO8" s="9">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AW8" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AX8" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AY8" s="13">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>4</v>
+      </c>
+      <c r="BB8" s="12">
+        <v>4</v>
+      </c>
+      <c r="BC8" s="13">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="BD8" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="BE8" s="13">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="BF8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG8" s="58"/>
+      <c r="BH8" s="36"/>
+      <c r="BI8" s="37"/>
+      <c r="BJ8" s="37"/>
+      <c r="BK8" s="37"/>
+      <c r="BL8" s="34"/>
+      <c r="BM8" s="34"/>
     </row>
     <row r="9" spans="4:65" ht="14.25" customHeight="1">
-      <c r="N9" s="7"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="37"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37"/>
-      <c r="BC9" s="42"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="37"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23"/>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
+      <c r="N9" s="17"/>
+      <c r="T9" s="7">
+        <v>5</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="9">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="AO9" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="9">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>5</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AW9" s="13">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AX9" s="13">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AY9" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>5</v>
+      </c>
+      <c r="BB9" s="12">
+        <v>5</v>
+      </c>
+      <c r="BC9" s="13">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="BD9" s="13">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="BE9" s="13">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="BF9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG9" s="58"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
     </row>
     <row r="10" spans="4:65" ht="14.25" customHeight="1">
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="9"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="22"/>
-      <c r="BI10" s="23"/>
-      <c r="BJ10" s="23"/>
-      <c r="BK10" s="23"/>
-      <c r="BL10" s="20"/>
-      <c r="BM10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="19"/>
+      <c r="T10" s="7">
+        <v>6</v>
+      </c>
+      <c r="U10" s="8">
+        <v>3</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="X10" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="4">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>6</v>
+      </c>
+      <c r="AU10" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="13">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AW10" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AX10" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AY10" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>6</v>
+      </c>
+      <c r="BB10" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC10" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="BD10" s="13">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="BE10" s="13">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="BF10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG10" s="58"/>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="34"/>
+      <c r="BM10" s="34"/>
     </row>
     <row r="11" spans="4:65" ht="14.25" customHeight="1">
-      <c r="D11" s="7"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="42"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="22"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="20"/>
-      <c r="BM11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="T11" s="7">
+        <v>7</v>
+      </c>
+      <c r="U11" s="8">
+        <v>4</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="X11" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>9</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>7</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="13">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AW11" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="AX11" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="AY11" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>7</v>
+      </c>
+      <c r="BB11" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC11" s="13">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="BD11" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="BE11" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="BF11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
     </row>
     <row r="12" spans="4:65" ht="14.25" customHeight="1">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="22"/>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="T12" s="7">
+        <v>8</v>
+      </c>
+      <c r="U12" s="8">
+        <v>2</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="X12" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="4">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>11</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>8</v>
+      </c>
+      <c r="AU12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>8</v>
+      </c>
+      <c r="BB12" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="BD12" s="13">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="BE12" s="13">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="BF12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="37"/>
+      <c r="BK12" s="37"/>
+      <c r="BL12" s="34"/>
+      <c r="BM12" s="34"/>
     </row>
     <row r="13" spans="4:65" ht="14.25" customHeight="1">
-      <c r="N13" s="7"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="22"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
+      <c r="N13" s="17"/>
+      <c r="T13" s="7">
+        <v>9</v>
+      </c>
+      <c r="U13" s="8">
+        <v>5</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="X13" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>9</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="AO13" s="9">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="9">
+        <f t="shared" ref="AQ13:AQ34" si="0">AO13</f>
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="AR13" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>9</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="13">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="AW13" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="AY13" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="BA13" s="7">
+        <v>9</v>
+      </c>
+      <c r="BB13" s="12">
+        <v>6</v>
+      </c>
+      <c r="BC13" s="13">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="BD13" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="BE13" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="BF13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="37"/>
+      <c r="BJ13" s="37"/>
+      <c r="BK13" s="37"/>
+      <c r="BL13" s="34"/>
+      <c r="BM13" s="34"/>
     </row>
     <row r="14" spans="4:65" ht="14.25" customHeight="1">
-      <c r="N14" s="7"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="37"/>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="22"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
+      <c r="N14" s="17"/>
+      <c r="T14" s="7">
+        <v>10</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="X14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>10</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="AO14" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AR14" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>10</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="BA14" s="7">
+        <v>10</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>4</v>
+      </c>
+      <c r="BC14" s="13">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="BD14" s="13">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="BE14" s="13">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="BF14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="36"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="37"/>
+      <c r="BK14" s="37"/>
+      <c r="BL14" s="34"/>
+      <c r="BM14" s="34"/>
     </row>
     <row r="15" spans="4:65" ht="14.25" customHeight="1">
-      <c r="N15" s="7"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="20"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
-      <c r="BK15" s="23"/>
-      <c r="BL15" s="20"/>
-      <c r="BM15" s="20"/>
+      <c r="N15" s="17"/>
+      <c r="T15" s="7">
+        <v>11</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="X15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="4">
+        <v>11</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="AH15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="13">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="9">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="AO15" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AR15" s="9">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>11</v>
+      </c>
+      <c r="AU15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="AW15" s="13">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="AX15" s="13">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="AY15" s="13">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>11</v>
+      </c>
+      <c r="BB15" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC15" s="13">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="BD15" s="13">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="BE15" s="13">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="BF15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="36"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="37"/>
+      <c r="BK15" s="37"/>
+      <c r="BL15" s="34"/>
+      <c r="BM15" s="34"/>
     </row>
     <row r="16" spans="4:65" ht="14.25" customHeight="1">
-      <c r="S16" s="33"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="20"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
-      <c r="BK16" s="23"/>
-      <c r="BL16" s="20"/>
-      <c r="BM16" s="20"/>
+      <c r="T16" s="7">
+        <v>12</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="X16" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="4">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>7</v>
+      </c>
+      <c r="AQ16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AR16" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>12</v>
+      </c>
+      <c r="AU16" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>12</v>
+      </c>
+      <c r="BB16" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC16" s="13">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="BD16" s="13">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="BE16" s="13">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="BF16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="37"/>
+      <c r="BJ16" s="37"/>
+      <c r="BK16" s="37"/>
+      <c r="BL16" s="34"/>
+      <c r="BM16" s="34"/>
     </row>
     <row r="17" spans="1:65" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="7">
+        <v>13</v>
+      </c>
+      <c r="U17" s="8">
+        <v>2</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="X17" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="AH17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>13</v>
+      </c>
+      <c r="AM17" s="10">
         <v>4</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="42"/>
-      <c r="BF17" s="37"/>
-      <c r="BG17" s="20"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="23"/>
-      <c r="BJ17" s="23"/>
-      <c r="BK17" s="23"/>
-      <c r="BL17" s="20"/>
-      <c r="BM17" s="20"/>
+      <c r="AN17" s="9">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AP17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>13</v>
+      </c>
+      <c r="AU17" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AW17" s="13">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="AX17" s="13">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="AY17" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BA17" s="7">
+        <v>13</v>
+      </c>
+      <c r="BB17" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC17" s="13">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="BD17" s="13">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="BE17" s="13">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="BF17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="37"/>
+      <c r="BJ17" s="37"/>
+      <c r="BK17" s="37"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
     </row>
     <row r="18" spans="1:65" ht="14.25" customHeight="1">
-      <c r="C18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="Q18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="37"/>
-      <c r="AU18" s="37"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="37"/>
-      <c r="BB18" s="37"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="37"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="23"/>
-      <c r="BJ18" s="23"/>
-      <c r="BK18" s="23"/>
-      <c r="BL18" s="20"/>
-      <c r="BM18" s="20"/>
+      <c r="T18" s="7">
+        <v>14</v>
+      </c>
+      <c r="U18" s="8">
+        <v>4</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="X18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="4">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>14</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AP18" s="20">
+        <v>9</v>
+      </c>
+      <c r="AQ18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AR18" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>14</v>
+      </c>
+      <c r="AU18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="BA18" s="7">
+        <v>14</v>
+      </c>
+      <c r="BB18" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="13">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="BD18" s="13">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="BE18" s="13">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="BF18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
     </row>
     <row r="19" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="Q19" s="3"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="37"/>
-      <c r="AU19" s="37"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="37"/>
-      <c r="BB19" s="37"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="37"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="22"/>
-      <c r="BI19" s="23"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="23"/>
-      <c r="BL19" s="20"/>
-      <c r="BM19" s="20"/>
+      <c r="T19" s="7">
+        <v>15</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="X19" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="4">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>15</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>11</v>
+      </c>
+      <c r="AQ19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>15</v>
+      </c>
+      <c r="AU19" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="13">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="AW19" s="13">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="AX19" s="13">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="AY19" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="BA19" s="7">
+        <v>15</v>
+      </c>
+      <c r="BB19" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="13">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="BD19" s="13">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="BE19" s="13">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="BF19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="37"/>
+      <c r="BK19" s="37"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
     </row>
     <row r="20" spans="1:65" ht="14.25" customHeight="1">
-      <c r="D20" s="13"/>
-      <c r="L20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
+      <c r="D20" s="24"/>
+      <c r="L20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
       <c r="Q20" s="3"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="23"/>
-      <c r="BJ20" s="23"/>
-      <c r="BK20" s="23"/>
-      <c r="BL20" s="20"/>
-      <c r="BM20" s="20"/>
+      <c r="T20" s="7">
+        <v>16</v>
+      </c>
+      <c r="U20" s="8">
+        <v>2</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="X20" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="4">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AH20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>16</v>
+      </c>
+      <c r="AM20" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AO20" s="9">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AP20" s="10">
+        <v>10</v>
+      </c>
+      <c r="AQ20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>16</v>
+      </c>
+      <c r="AU20" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="AX20" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="AY20" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="BA20" s="7">
+        <v>16</v>
+      </c>
+      <c r="BB20" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC20" s="13">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="BD20" s="13">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="BE20" s="13">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="BF20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="37"/>
+      <c r="BJ20" s="37"/>
+      <c r="BK20" s="37"/>
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
     </row>
     <row r="21" spans="1:65" ht="14.25" customHeight="1">
-      <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="M21" s="11">
+      <c r="D21" s="25"/>
+      <c r="E21" s="22"/>
+      <c r="M21" s="22">
         <v>1</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="Q21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="37"/>
-      <c r="AU21" s="37"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="37"/>
-      <c r="BB21" s="37"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="22"/>
-      <c r="BI21" s="23"/>
-      <c r="BJ21" s="23"/>
-      <c r="BK21" s="23"/>
-      <c r="BL21" s="20"/>
-      <c r="BM21" s="20"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="Q21" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="7">
+        <v>17</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="X21" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="4">
+        <v>17</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="13">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AG21" s="13">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="AH21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>17</v>
+      </c>
+      <c r="AM21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="AR21" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AT21" s="7">
+        <v>17</v>
+      </c>
+      <c r="AU21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="13">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AW21" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AX21" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AY21" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="BA21" s="7">
+        <v>17</v>
+      </c>
+      <c r="BB21" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC21" s="13">
+        <v>0.3125</v>
+      </c>
+      <c r="BD21" s="13">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="BE21" s="13">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="BF21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="37"/>
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="34"/>
+      <c r="BM21" s="34"/>
     </row>
     <row r="22" spans="1:65" ht="14.25" customHeight="1">
       <c r="Q22" s="3"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="37"/>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="22"/>
-      <c r="BI22" s="23"/>
-      <c r="BJ22" s="23"/>
-      <c r="BK22" s="23"/>
-      <c r="BL22" s="20"/>
-      <c r="BM22" s="20"/>
+      <c r="T22" s="7">
+        <v>18</v>
+      </c>
+      <c r="U22" s="8">
+        <v>4</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="X22" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" ref="Y22:Y25" si="1">W22</f>
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="4">
+        <v>18</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>18</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AO22" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>18</v>
+      </c>
+      <c r="AU22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV22" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AW22" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AX22" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>18</v>
+      </c>
+      <c r="BB22" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC22" s="13">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="BD22" s="13">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="BE22" s="13">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="BF22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG22" s="58"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="37"/>
+      <c r="BJ22" s="37"/>
+      <c r="BK22" s="37"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
     </row>
     <row r="23" spans="1:65" ht="14.25" customHeight="1">
-      <c r="M23" s="11">
+      <c r="M23" s="22">
         <v>2</v>
       </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="Q23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="37"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="37"/>
-      <c r="BB23" s="37"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="37"/>
-      <c r="BG23" s="20"/>
-      <c r="BH23" s="22"/>
-      <c r="BI23" s="23"/>
-      <c r="BJ23" s="23"/>
-      <c r="BK23" s="23"/>
-      <c r="BL23" s="20"/>
-      <c r="BM23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="Q23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="7">
+        <v>19</v>
+      </c>
+      <c r="U23" s="8">
+        <v>5</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="X23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="4">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="13">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>19</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AO23" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AR23" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AT23" s="7">
+        <v>19</v>
+      </c>
+      <c r="AU23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AV23" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AW23" s="13">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="AX23" s="13">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="AY23" s="13">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="BA23" s="7">
+        <v>19</v>
+      </c>
+      <c r="BB23" s="12">
+        <v>4</v>
+      </c>
+      <c r="BC23" s="13">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="BD23" s="13">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="BE23" s="13">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="BF23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="37"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
     </row>
     <row r="24" spans="1:65" ht="14.25" customHeight="1">
       <c r="Q24" s="3"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="38"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="37"/>
-      <c r="AU24" s="37"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="37"/>
-      <c r="BB24" s="37"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="37"/>
-      <c r="BG24" s="20"/>
-      <c r="BH24" s="22"/>
-      <c r="BI24" s="23"/>
-      <c r="BJ24" s="23"/>
-      <c r="BK24" s="23"/>
-      <c r="BL24" s="20"/>
-      <c r="BM24" s="20"/>
+      <c r="T24" s="7">
+        <v>20</v>
+      </c>
+      <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" ref="W24:W25" si="2">Z22</f>
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="X24" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="4">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>20</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="AO24" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>3</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AR24" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>20</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="13">
+        <v>0.34375</v>
+      </c>
+      <c r="AW24" s="13">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="AX24" s="13">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="AY24" s="13">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="BA24" s="7">
+        <v>20</v>
+      </c>
+      <c r="BB24" s="12">
+        <v>5</v>
+      </c>
+      <c r="BC24" s="13">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="BD24" s="13">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="BE24" s="13">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="BF24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="36"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
     </row>
     <row r="25" spans="1:65" ht="14.25" customHeight="1">
-      <c r="M25" s="11">
+      <c r="M25" s="22">
         <v>3</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="Q25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="37"/>
-      <c r="AU25" s="37"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="37"/>
-      <c r="BB25" s="37"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="37"/>
-      <c r="BG25" s="20"/>
-      <c r="BH25" s="22"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="23"/>
-      <c r="BL25" s="20"/>
-      <c r="BM25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="Q25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="7">
+        <v>21</v>
+      </c>
+      <c r="U25" s="8">
+        <v>1</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="2"/>
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="4">
+        <v>21</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>21</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="9">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AQ25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AT25" s="7">
+        <v>21</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="13">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="AW25" s="13">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="AX25" s="13">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="AY25" s="13">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="BA25" s="7">
+        <v>21</v>
+      </c>
+      <c r="BB25" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC25" s="13">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="BD25" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="BE25" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="BF25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG25" s="58"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="34"/>
+      <c r="BM25" s="34"/>
     </row>
     <row r="26" spans="1:65" ht="14.25" customHeight="1">
       <c r="Q26" s="3"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="38"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="37"/>
-      <c r="AU26" s="37"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="42"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="37"/>
-      <c r="BB26" s="37"/>
-      <c r="BC26" s="42"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="22"/>
-      <c r="BI26" s="23"/>
-      <c r="BJ26" s="23"/>
-      <c r="BK26" s="23"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
+      <c r="T26" s="7">
+        <v>22</v>
+      </c>
+      <c r="U26" s="8">
+        <v>2</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="X26" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="4">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>22</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN26" s="9">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>0.31180555555555556</v>
+      </c>
+      <c r="AT26" s="7">
+        <v>22</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="AX26" s="13">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="AY26" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="BA26" s="7">
+        <v>22</v>
+      </c>
+      <c r="BB26" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC26" s="13">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="BD26" s="13">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="BE26" s="13">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="BF26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="36"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
     </row>
     <row r="27" spans="1:65" ht="14.25" customHeight="1">
       <c r="Q27" s="3"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="40"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="40"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="20"/>
-      <c r="BH27" s="22"/>
-      <c r="BI27" s="23"/>
-      <c r="BJ27" s="23"/>
-      <c r="BK27" s="23"/>
-      <c r="BL27" s="20"/>
-      <c r="BM27" s="20"/>
+      <c r="T27" s="7">
+        <v>23</v>
+      </c>
+      <c r="U27" s="8">
+        <v>1</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="X27" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="4">
+        <v>23</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="AH27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>8.01</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>23</v>
+      </c>
+      <c r="AM27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="9">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AR27" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AT27" s="7">
+        <v>23</v>
+      </c>
+      <c r="AU27" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="AX27" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="AY27" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="BA27" s="7">
+        <v>23</v>
+      </c>
+      <c r="BB27" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="BD27" s="13">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="BE27" s="13">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="BF27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG27" s="58"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
     </row>
     <row r="28" spans="1:65" ht="14.25" customHeight="1">
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
-      <c r="O28" s="16"/>
-      <c r="Q28" s="15" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="O28" s="27"/>
+      <c r="Q28" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="7">
+        <v>24</v>
+      </c>
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" ref="W28:W29" si="3">Z26</f>
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="X28" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="4">
+        <v>24</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>24</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="9">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="AO28" s="9">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="AR28" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AT28" s="7">
+        <v>24</v>
+      </c>
+      <c r="AU28" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="BA28" s="7">
+        <v>24</v>
+      </c>
+      <c r="BB28" s="12">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="13">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="BD28" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="BE28" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="BF28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG28" s="58"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="34"/>
+      <c r="BM28" s="34"/>
+    </row>
+    <row r="29" spans="1:65" ht="14.25" customHeight="1">
+      <c r="B29" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="M29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="Q29" s="3"/>
+      <c r="T29" s="7">
+        <v>25</v>
+      </c>
+      <c r="U29" s="8">
+        <v>2</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="3"/>
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="X29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="4">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>25</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AR29" s="9">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AT29" s="7">
+        <v>25</v>
+      </c>
+      <c r="AU29" s="12">
+        <v>3</v>
+      </c>
+      <c r="AV29" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AW29" s="13">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="AX29" s="13">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="AY29" s="13">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="BA29" s="7">
+        <v>25</v>
+      </c>
+      <c r="BB29" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC29" s="13">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="BD29" s="13">
+        <v>0.31874999999999998</v>
+      </c>
+      <c r="BE29" s="13">
+        <v>0.31874999999999998</v>
+      </c>
+      <c r="BF29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG29" s="58"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="34"/>
+      <c r="BM29" s="34"/>
+    </row>
+    <row r="30" spans="1:65" ht="14.25" customHeight="1">
+      <c r="B30" s="51"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="M30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="Q30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="7">
+        <v>26</v>
+      </c>
+      <c r="U30" s="8">
+        <v>3</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="X30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="4">
+        <v>26</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="13">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>26</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN30" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AO30" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AR30" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AT30" s="7">
+        <v>26</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="AW30" s="13">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="AX30" s="13">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="AY30" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="BA30" s="7">
+        <v>26</v>
+      </c>
+      <c r="BB30" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC30" s="13">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="BD30" s="13">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="BE30" s="13">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="BF30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG30" s="58"/>
+      <c r="BH30" s="36"/>
+      <c r="BI30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BK30" s="37"/>
+      <c r="BL30" s="34"/>
+      <c r="BM30" s="34"/>
+    </row>
+    <row r="31" spans="1:65" ht="14.25" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="29"/>
+      <c r="T31" s="7">
+        <v>27</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="X31" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="4">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AH31" s="12">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>0.34375</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>27</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>4</v>
+      </c>
+      <c r="AQ31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="AR31" s="9">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>27</v>
+      </c>
+      <c r="AU31" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="13">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="AW31" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="AX31" s="13">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="AY31" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="BA31" s="7">
+        <v>27</v>
+      </c>
+      <c r="BB31" s="12">
+        <v>3</v>
+      </c>
+      <c r="BC31" s="13">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="BD31" s="13">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="BE31" s="13">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="BF31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG31" s="58"/>
+      <c r="BH31" s="36"/>
+      <c r="BI31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="34"/>
+      <c r="BM31" s="34"/>
+    </row>
+    <row r="32" spans="1:65" ht="14.25" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="T32" s="7">
+        <v>28</v>
+      </c>
+      <c r="U32" s="8">
+        <v>1</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="W32" s="9">
+        <f>Z31</f>
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="X32" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="9">
+        <f t="shared" ref="Y32:Y33" si="4">W32</f>
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>0.34305555555555556</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="AH32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>0.34444444444444444</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>28</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="9">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AO32" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AR32" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AT32" s="7">
+        <v>28</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="AX32" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="AY32" s="13">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="BA32" s="7">
+        <v>28</v>
+      </c>
+      <c r="BB32" s="12">
+        <v>2</v>
+      </c>
+      <c r="BC32" s="13">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="BD32" s="13">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="BE32" s="13">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="BF32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG32" s="58"/>
+      <c r="BH32" s="36"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+    </row>
+    <row r="33" spans="1:65" ht="14.25" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="T33" s="7">
+        <v>29</v>
+      </c>
+      <c r="U33" s="8">
+        <v>2</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="W33" s="9">
+        <f>Z30</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="X33" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="4"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="4">
+        <v>29</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>29</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="9">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="AO33" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AP33" s="10">
         <v>10</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="40"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="23"/>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-    </row>
-    <row r="29" spans="1:65" ht="14.25" customHeight="1">
-      <c r="B29" s="31" t="s">
+      <c r="AQ33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="AR33" s="9">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="AT33" s="7">
+        <v>29</v>
+      </c>
+      <c r="AU33" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="AW33" s="13">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="AX33" s="13">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="AY33" s="13">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="BA33" s="7">
+        <v>29</v>
+      </c>
+      <c r="BB33" s="12">
+        <v>4</v>
+      </c>
+      <c r="BC33" s="13">
+        <v>0.31874999999999998</v>
+      </c>
+      <c r="BD33" s="13">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="BE33" s="13">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="BF33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="36"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="34"/>
+      <c r="BM33" s="34"/>
+    </row>
+    <row r="34" spans="1:65" ht="14.25" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="T34" s="7">
+        <v>30</v>
+      </c>
+      <c r="U34" s="8">
+        <v>1</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="X34" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="4">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>30</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="9">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AO34" s="9">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AP34" s="10">
         <v>11</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="M29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="Q29" s="3"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="40"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="23"/>
-      <c r="BJ29" s="23"/>
-      <c r="BK29" s="23"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-    </row>
-    <row r="30" spans="1:65" ht="14.25" customHeight="1">
-      <c r="B30" s="32"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="M30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="Q30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="40"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="37"/>
-      <c r="BB30" s="37"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="37"/>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="22"/>
-      <c r="BI30" s="23"/>
-      <c r="BJ30" s="23"/>
-      <c r="BK30" s="23"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-    </row>
-    <row r="31" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="18"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="37"/>
-      <c r="AU31" s="37"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="37"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="37"/>
-      <c r="BG31" s="20"/>
-      <c r="BH31" s="22"/>
-      <c r="BI31" s="23"/>
-      <c r="BJ31" s="23"/>
-      <c r="BK31" s="23"/>
-      <c r="BL31" s="20"/>
-      <c r="BM31" s="20"/>
-    </row>
-    <row r="32" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="40"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="37"/>
-      <c r="AU32" s="37"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="37"/>
-      <c r="BB32" s="37"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="37"/>
-      <c r="BG32" s="20"/>
-      <c r="BH32" s="22"/>
-      <c r="BI32" s="23"/>
-      <c r="BJ32" s="23"/>
-      <c r="BK32" s="23"/>
-      <c r="BL32" s="20"/>
-      <c r="BM32" s="20"/>
-    </row>
-    <row r="33" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="40"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="37"/>
-      <c r="AU33" s="37"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="33"/>
-      <c r="BA33" s="37"/>
-      <c r="BB33" s="37"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="37"/>
-      <c r="BG33" s="20"/>
-      <c r="BH33" s="22"/>
-      <c r="BI33" s="23"/>
-      <c r="BJ33" s="23"/>
-      <c r="BK33" s="23"/>
-      <c r="BL33" s="20"/>
-      <c r="BM33" s="20"/>
-    </row>
-    <row r="34" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="38"/>
-      <c r="AM34" s="40"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="33"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="20"/>
-      <c r="BH34" s="22"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="20"/>
-      <c r="BM34" s="20"/>
+      <c r="AQ34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AR34" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="AT34" s="7">
+        <v>30</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="BA34" s="7">
+        <v>30</v>
+      </c>
+      <c r="BB34" s="12">
+        <v>4</v>
+      </c>
+      <c r="BC34" s="13">
+        <v>0.31944444444444442</v>
+      </c>
+      <c r="BD34" s="13">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="BE34" s="13">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="BF34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG34" s="58"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
     </row>
     <row r="35" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="34"/>
-      <c r="AV35" s="34"/>
-      <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="33"/>
-      <c r="BB35" s="34"/>
-      <c r="BC35" s="34"/>
-      <c r="BD35" s="34"/>
-      <c r="BE35" s="34"/>
-      <c r="BF35" s="34"/>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="20"/>
-      <c r="BI35" s="20"/>
-      <c r="BJ35" s="20"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="20"/>
-      <c r="BM35" s="20"/>
+      <c r="A35" s="28"/>
+      <c r="T35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U35" s="8">
+        <f>SUM(U5:U34)</f>
+        <v>61</v>
+      </c>
+      <c r="V35" s="52"/>
+      <c r="AC35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD35" s="12">
+        <f>SUM(AD5:AD34)</f>
+        <v>31</v>
+      </c>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AL35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM35" s="10">
+        <f>SUM(AM5:AM34)</f>
+        <v>67</v>
+      </c>
+      <c r="AN35" s="52"/>
+      <c r="AT35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU35" s="12">
+        <f>SUM(AU5:AU34)</f>
+        <v>67</v>
+      </c>
+      <c r="AV35" s="53"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="BB35" s="39">
+        <f>SUM(BB5:BB34)</f>
+        <v>83</v>
+      </c>
+      <c r="BC35" s="53">
+        <f>BB35/AE38</f>
+        <v>0.26860841423948217</v>
+      </c>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="34"/>
+      <c r="BH35" s="34"/>
+      <c r="BI35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BK35" s="34"/>
+      <c r="BL35" s="34"/>
+      <c r="BM35" s="34"/>
     </row>
     <row r="36" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="34"/>
-      <c r="BC36" s="34"/>
-      <c r="BD36" s="34"/>
-      <c r="BE36" s="34"/>
-      <c r="BF36" s="34"/>
+      <c r="A36" s="28"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="55">
+        <f>U35/AE38</f>
+        <v>0.19741100323624594</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="56">
+        <f>AD35/AE38</f>
+        <v>0.10032362459546926</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AL36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM36" s="57">
+        <f>AM35/AE38</f>
+        <v>0.2168284789644013</v>
+      </c>
+      <c r="AT36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU36" s="56">
+        <f>AU35/AE38</f>
+        <v>0.2168284789644013</v>
+      </c>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
     </row>
     <row r="37" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="28"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2887,13 +4995,17 @@
       <c r="BF37" s="1"/>
     </row>
     <row r="38" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A38" s="19" t="s">
-        <v>2</v>
+      <c r="A38" s="30" t="s">
+        <v>5</v>
       </c>
       <c r="Q38" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF38" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="AE38">
+        <f>SUM(AD35,U35,AM35,AU35,BB35)</f>
+        <v>309</v>
+      </c>
+      <c r="AF38" s="54"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -2910,18 +5022,18 @@
       <c r="BF38" s="1"/>
     </row>
     <row r="39" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A39" s="17"/>
+      <c r="A39" s="28"/>
       <c r="S39">
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="U39">
         <v>7</v>
       </c>
       <c r="W39" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="X39">
         <f>AVERAGE(U39:U68)</f>
@@ -2944,18 +5056,18 @@
       <c r="BF39" s="1"/>
     </row>
     <row r="40" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A40" s="17"/>
+      <c r="A40" s="28"/>
       <c r="S40">
         <v>2</v>
       </c>
       <c r="T40" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="U40">
         <v>17</v>
       </c>
       <c r="W40" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="X40">
         <f>_xlfn.VAR.S(U39:U68)</f>
@@ -2978,12 +5090,12 @@
       <c r="BF40" s="1"/>
     </row>
     <row r="41" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A41" s="17"/>
+      <c r="A41" s="28"/>
       <c r="S41">
         <v>3</v>
       </c>
       <c r="T41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="U41">
         <v>7</v>
@@ -2994,7 +5106,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AQ41" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AS41">
         <v>1</v>
@@ -3004,7 +5116,7 @@
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AW41">
         <f>AVERAGE(AT41:AT70)</f>
@@ -3019,12 +5131,12 @@
       <c r="BF41" s="1"/>
     </row>
     <row r="42" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A42" s="17"/>
+      <c r="A42" s="28"/>
       <c r="S42">
         <v>4</v>
       </c>
       <c r="T42" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="U42">
         <v>10</v>
@@ -3042,7 +5154,7 @@
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AW42">
         <f>_xlfn.VAR.S(AT41:AT70)</f>
@@ -3057,12 +5169,12 @@
       <c r="BF42" s="1"/>
     </row>
     <row r="43" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A43" s="17"/>
+      <c r="A43" s="28"/>
       <c r="S43">
         <v>5</v>
       </c>
       <c r="T43" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="U43">
         <v>5</v>
@@ -3090,12 +5202,12 @@
       <c r="BF43" s="1"/>
     </row>
     <row r="44" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A44" s="17"/>
+      <c r="A44" s="28"/>
       <c r="S44">
         <v>6</v>
       </c>
       <c r="T44" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="U44">
         <v>14</v>
@@ -3123,12 +5235,12 @@
       <c r="BF44" s="1"/>
     </row>
     <row r="45" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A45" s="17"/>
+      <c r="A45" s="28"/>
       <c r="S45">
         <v>7</v>
       </c>
       <c r="T45" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="U45">
         <v>4</v>
@@ -3156,12 +5268,12 @@
       <c r="BF45" s="1"/>
     </row>
     <row r="46" spans="1:65" ht="14.25" customHeight="1">
-      <c r="A46" s="17"/>
+      <c r="A46" s="28"/>
       <c r="S46">
         <v>8</v>
       </c>
-      <c r="T46" s="24" t="s">
-        <v>21</v>
+      <c r="T46" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="U46">
         <v>8</v>
@@ -3193,7 +5305,7 @@
         <v>9</v>
       </c>
       <c r="T47" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="U47">
         <v>8</v>
@@ -3225,7 +5337,7 @@
         <v>10</v>
       </c>
       <c r="T48" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="U48">
         <v>7</v>
@@ -3257,7 +5369,7 @@
         <v>11</v>
       </c>
       <c r="T49" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="U49">
         <v>10</v>
@@ -3289,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="T50" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="U50">
         <v>12</v>
@@ -3321,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="T51" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="U51">
         <v>7</v>
@@ -3353,7 +5465,7 @@
         <v>14</v>
       </c>
       <c r="T52" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="U52">
         <v>8</v>
@@ -3385,7 +5497,7 @@
         <v>15</v>
       </c>
       <c r="T53" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="U53">
         <v>10</v>
@@ -3416,8 +5528,8 @@
       <c r="S54">
         <v>16</v>
       </c>
-      <c r="T54" s="24" t="s">
-        <v>29</v>
+      <c r="T54" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="U54">
         <v>9</v>
@@ -3449,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="T55" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="U55">
         <v>12</v>
@@ -3481,7 +5593,7 @@
         <v>18</v>
       </c>
       <c r="T56" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="U56">
         <v>7</v>
@@ -3513,7 +5625,7 @@
         <v>19</v>
       </c>
       <c r="T57" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="U57">
         <v>8</v>
@@ -3545,7 +5657,7 @@
         <v>20</v>
       </c>
       <c r="T58" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="U58">
         <v>10</v>
@@ -3577,7 +5689,7 @@
         <v>21</v>
       </c>
       <c r="T59" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="U59">
         <v>6</v>
@@ -3609,7 +5721,7 @@
         <v>22</v>
       </c>
       <c r="T60" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="U60">
         <v>9</v>
@@ -3641,7 +5753,7 @@
         <v>23</v>
       </c>
       <c r="T61" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="U61">
         <v>5</v>
@@ -3673,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="T62" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="U62">
         <v>6</v>
@@ -3704,8 +5816,8 @@
       <c r="S63">
         <v>25</v>
       </c>
-      <c r="T63" s="24" t="s">
-        <v>38</v>
+      <c r="T63" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="U63">
         <v>8</v>
@@ -3737,7 +5849,7 @@
         <v>26</v>
       </c>
       <c r="T64" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="U64">
         <v>10</v>
@@ -3769,7 +5881,7 @@
         <v>27</v>
       </c>
       <c r="T65" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="U65">
         <v>7</v>
@@ -3801,7 +5913,7 @@
         <v>28</v>
       </c>
       <c r="T66" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="U66">
         <v>9</v>
@@ -3833,7 +5945,7 @@
         <v>29</v>
       </c>
       <c r="T67" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="U67">
         <v>5</v>
@@ -3865,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="T68" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="U68">
         <v>6</v>
@@ -3974,7 +6086,7 @@
     </row>
     <row r="73" spans="17:58" ht="14.25" customHeight="1">
       <c r="Q73" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -3983,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="W73" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="X73">
         <f>AVERAGE(U73:U102)</f>
@@ -4013,7 +6125,7 @@
         <v>2</v>
       </c>
       <c r="W74" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="X74">
         <f>_xlfn.VAR.S(U73:U102)</f>
@@ -4071,7 +6183,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
       <c r="AQ76" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AS76">
         <v>1</v>
@@ -4081,7 +6193,7 @@
       </c>
       <c r="AU76" s="1"/>
       <c r="AV76" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AW76">
         <f>AVERAGE(AT76:AT105)</f>
@@ -4115,7 +6227,7 @@
       </c>
       <c r="AU77" s="1"/>
       <c r="AV77" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AW77">
         <f>_xlfn.VAR.S(AT76:AT105)</f>
@@ -4925,7 +7037,7 @@
     </row>
     <row r="106" spans="17:58" ht="14.25" customHeight="1">
       <c r="Q106" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -4934,7 +7046,7 @@
         <v>1</v>
       </c>
       <c r="W106" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="X106">
         <f>AVERAGE(U106:U135)</f>
@@ -4964,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="W107" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="X107">
         <f>_xlfn.VAR.S(U106:U135)</f>

--- a/PLANO DEL SISTEMA- CINE2.xlsx
+++ b/PLANO DEL SISTEMA- CINE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f87ca329e5780eae/Documentos/GitHub/Simulaci-n-de-Cinepolis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84CCC660-CB9C-4DFB-BC04-7CD0DC6D51DF}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E63A294-2927-4192-B521-1B2A3F05445F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,18 +580,11 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,12 +594,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,6 +1021,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1221,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV50" sqref="AV50:AV52"/>
+    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X100" sqref="X100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1283,19 +1287,19 @@
       <c r="BI1" s="1"/>
     </row>
     <row r="2" spans="4:68" ht="14.25" customHeight="1">
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -1353,52 +1357,52 @@
       <c r="N3" s="2">
         <v>11</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="57"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AD3" s="51" t="s">
+      <c r="AD3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="56"/>
-      <c r="AN3" s="51" t="s">
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="57"/>
+      <c r="AN3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="56"/>
-      <c r="AW3" s="51" t="s">
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="57"/>
+      <c r="AW3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="56"/>
-      <c r="BE3" s="51" t="s">
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="57"/>
+      <c r="BE3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="53"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="52"/>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="33"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="55"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
       <c r="BO3" s="33"/>
       <c r="BP3" s="33"/>
     </row>
@@ -1525,11 +1529,11 @@
       <c r="Z5" s="9">
         <v>0.30138888888888887</v>
       </c>
-      <c r="AA5" s="57">
+      <c r="AA5" s="45">
         <f>Z5-Y5</f>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB5" s="59">
+      <c r="AB5" s="47">
         <v>4</v>
       </c>
       <c r="AC5" s="4">
@@ -1557,10 +1561,10 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="AK5" s="37">
-        <f>AJ5-AI5</f>
+        <f t="shared" ref="AK5:AK34" si="0">AJ5-AI5</f>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL5" s="61">
+      <c r="AL5" s="49">
         <v>1</v>
       </c>
       <c r="AM5" s="4">
@@ -1588,7 +1592,7 @@
         <f>AS5-AR5</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="AU5" s="61">
+      <c r="AU5" s="49">
         <v>5</v>
       </c>
       <c r="AV5" s="7">
@@ -1613,7 +1617,7 @@
         <f>BA5-AZ5</f>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="BC5" s="61">
+      <c r="BC5" s="49">
         <v>5</v>
       </c>
       <c r="BD5" s="7">
@@ -1634,7 +1638,7 @@
       <c r="BI5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="58">
+      <c r="BJ5" s="46">
         <f>BG5-BF5</f>
         <v>6.9444444444444198E-4</v>
       </c>
@@ -1667,11 +1671,11 @@
       <c r="Z6" s="9">
         <v>0.30069444444444443</v>
       </c>
-      <c r="AA6" s="57">
-        <f t="shared" ref="AA6:AA34" si="0">Z6-Y6</f>
+      <c r="AA6" s="45">
+        <f t="shared" ref="AA6:AA34" si="1">Z6-Y6</f>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB6" s="59">
+      <c r="AB6" s="47">
         <v>2</v>
       </c>
       <c r="AC6" s="4">
@@ -1699,10 +1703,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="AK6" s="37">
-        <f>AJ6-AI6</f>
+        <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AL6" s="61">
+      <c r="AL6" s="49">
         <v>2</v>
       </c>
       <c r="AM6" s="4">
@@ -1727,10 +1731,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="AT6" s="37">
-        <f t="shared" ref="AT6:AT34" si="1">AS6-AR6</f>
+        <f t="shared" ref="AT6:AT34" si="2">AS6-AR6</f>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AU6" s="61">
+      <c r="AU6" s="49">
         <v>3</v>
       </c>
       <c r="AV6" s="7">
@@ -1752,10 +1756,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="BB6" s="37">
-        <f t="shared" ref="BB6:BB34" si="2">BA6-AZ6</f>
+        <f t="shared" ref="BB6:BB34" si="3">BA6-AZ6</f>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC6" s="61">
+      <c r="BC6" s="49">
         <v>4</v>
       </c>
       <c r="BD6" s="7">
@@ -1776,8 +1780,8 @@
       <c r="BI6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ6" s="58">
-        <f t="shared" ref="BJ6:BJ34" si="3">BG6-BF6</f>
+      <c r="BJ6" s="46">
+        <f t="shared" ref="BJ6:BJ34" si="4">BG6-BF6</f>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK6" s="35"/>
@@ -1788,12 +1792,12 @@
       <c r="BP6" s="33"/>
     </row>
     <row r="7" spans="4:68" ht="14.25" customHeight="1">
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="T7" s="7">
         <v>3</v>
       </c>
@@ -1815,11 +1819,11 @@
       <c r="Z7" s="9">
         <v>0.30277777777777776</v>
       </c>
-      <c r="AA7" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA7" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AB7" s="60">
+      <c r="AB7" s="48">
         <v>3</v>
       </c>
       <c r="AC7" s="4">
@@ -1847,10 +1851,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="AK7" s="37">
-        <f>AJ7-AI7</f>
+        <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AL7" s="61">
+      <c r="AL7" s="49">
         <v>2</v>
       </c>
       <c r="AM7" s="4">
@@ -1875,10 +1879,10 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="AT7" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="AU7" s="61">
+      <c r="AU7" s="49">
         <v>5</v>
       </c>
       <c r="AV7" s="7">
@@ -1900,10 +1904,10 @@
         <v>0.30555555555555558</v>
       </c>
       <c r="BB7" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1666666666667074E-3</v>
       </c>
-      <c r="BC7" s="61">
+      <c r="BC7" s="49">
         <v>6</v>
       </c>
       <c r="BD7" s="7">
@@ -1924,8 +1928,8 @@
       <c r="BI7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ7" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ7" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK7" s="35"/>
@@ -1968,11 +1972,11 @@
       <c r="Z8" s="9">
         <v>0.30277777777777776</v>
       </c>
-      <c r="AA8" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB8" s="60">
+      <c r="AB8" s="48">
         <v>2</v>
       </c>
       <c r="AC8" s="4">
@@ -2000,10 +2004,10 @@
         <v>0.30486111111111114</v>
       </c>
       <c r="AK8" s="37">
-        <f>AJ8-AI8</f>
+        <f t="shared" si="0"/>
         <v>1.3888888888889395E-3</v>
       </c>
-      <c r="AL8" s="61">
+      <c r="AL8" s="49">
         <v>2</v>
       </c>
       <c r="AM8" s="4">
@@ -2028,10 +2032,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="AT8" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8611111111110938E-3</v>
       </c>
-      <c r="AU8" s="61">
+      <c r="AU8" s="49">
         <v>7</v>
       </c>
       <c r="AV8" s="7">
@@ -2053,10 +2057,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="BB8" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC8" s="61">
+      <c r="BC8" s="49">
         <v>4</v>
       </c>
       <c r="BD8" s="7">
@@ -2077,7 +2081,7 @@
       <c r="BI8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ8" s="58">
+      <c r="BJ8" s="46">
         <f>BG8-BF8</f>
         <v>6.9444444444444198E-4</v>
       </c>
@@ -2111,11 +2115,11 @@
       <c r="Z9" s="9">
         <v>0.30486111111111114</v>
       </c>
-      <c r="AA9" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA9" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333814E-3</v>
       </c>
-      <c r="AB9" s="60">
+      <c r="AB9" s="48">
         <v>3</v>
       </c>
       <c r="AC9" s="4">
@@ -2143,10 +2147,10 @@
         <v>0.30625000000000002</v>
       </c>
       <c r="AK9" s="37">
-        <f>AJ9-AI9</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL9" s="61">
+      <c r="AL9" s="49">
         <v>1</v>
       </c>
       <c r="AM9" s="4">
@@ -2171,10 +2175,10 @@
         <v>0.30555555555555558</v>
       </c>
       <c r="AT9" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
-      <c r="AU9" s="61">
+      <c r="AU9" s="49">
         <v>7</v>
       </c>
       <c r="AV9" s="7">
@@ -2196,10 +2200,10 @@
         <v>0.31041666666666667</v>
       </c>
       <c r="BB9" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC9" s="61">
+      <c r="BC9" s="49">
         <v>3</v>
       </c>
       <c r="BD9" s="7">
@@ -2220,8 +2224,8 @@
       <c r="BI9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ9" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ9" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK9" s="35"/>
@@ -2264,11 +2268,11 @@
       <c r="Z10" s="9">
         <v>0.30555555555555558</v>
       </c>
-      <c r="AA10" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA10" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777778234E-3</v>
       </c>
-      <c r="AB10" s="60">
+      <c r="AB10" s="48">
         <v>4</v>
       </c>
       <c r="AC10" s="4">
@@ -2296,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="AK10" s="37" t="e">
-        <f>AJ10-AI10</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL10" s="61">
+      <c r="AL10" s="49">
         <v>0</v>
       </c>
       <c r="AM10" s="4">
@@ -2324,10 +2328,10 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="AT10" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU10" s="61">
+      <c r="AU10" s="49">
         <v>2</v>
       </c>
       <c r="AV10" s="7">
@@ -2349,10 +2353,10 @@
         <v>0.3125</v>
       </c>
       <c r="BB10" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC10" s="61">
+      <c r="BC10" s="49">
         <v>3</v>
       </c>
       <c r="BD10" s="7">
@@ -2373,8 +2377,8 @@
       <c r="BI10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ10" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ10" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK10" s="35"/>
@@ -2407,11 +2411,11 @@
       <c r="Z11" s="9">
         <v>0.30694444444444446</v>
       </c>
-      <c r="AA11" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA11" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AB11" s="60">
+      <c r="AB11" s="48">
         <v>3</v>
       </c>
       <c r="AC11" s="4">
@@ -2439,10 +2443,10 @@
         <v>0.31041666666666667</v>
       </c>
       <c r="AK11" s="37">
-        <f>AJ11-AI11</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL11" s="61">
+      <c r="AL11" s="49">
         <v>1</v>
       </c>
       <c r="AM11" s="4">
@@ -2467,10 +2471,10 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="AT11" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU11" s="61">
+      <c r="AU11" s="49">
         <v>2</v>
       </c>
       <c r="AV11" s="7">
@@ -2492,10 +2496,10 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="BB11" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="BC11" s="61">
+      <c r="BC11" s="49">
         <v>5</v>
       </c>
       <c r="BD11" s="7">
@@ -2516,8 +2520,8 @@
       <c r="BI11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ11" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ11" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK11" s="35"/>
@@ -2560,11 +2564,11 @@
       <c r="Z12" s="9">
         <v>0.30694444444444446</v>
       </c>
-      <c r="AA12" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA12" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB12" s="60">
+      <c r="AB12" s="48">
         <v>2</v>
       </c>
       <c r="AC12" s="4">
@@ -2592,10 +2596,10 @@
         <v>0.31180555555555556</v>
       </c>
       <c r="AK12" s="37">
-        <f>AJ12-AI12</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL12" s="61">
+      <c r="AL12" s="49">
         <v>1</v>
       </c>
       <c r="AM12" s="4">
@@ -2620,10 +2624,10 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="AT12" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU12" s="61">
+      <c r="AU12" s="49">
         <v>2</v>
       </c>
       <c r="AV12" s="7">
@@ -2645,10 +2649,10 @@
         <v>0.31805555555555554</v>
       </c>
       <c r="BB12" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC12" s="61">
+      <c r="BC12" s="49">
         <v>3</v>
       </c>
       <c r="BD12" s="7">
@@ -2669,8 +2673,8 @@
       <c r="BI12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ12" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ12" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK12" s="35"/>
@@ -2703,11 +2707,11 @@
       <c r="Z13" s="9">
         <v>0.30972222222222223</v>
       </c>
-      <c r="AA13" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA13" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB13" s="60">
+      <c r="AB13" s="48">
         <v>4</v>
       </c>
       <c r="AC13" s="4">
@@ -2735,10 +2739,10 @@
         <v>20</v>
       </c>
       <c r="AK13" s="37" t="e">
-        <f>AJ13-AI13</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL13" s="61">
+      <c r="AL13" s="49">
         <v>0</v>
       </c>
       <c r="AM13" s="4">
@@ -2757,17 +2761,17 @@
         <v>4</v>
       </c>
       <c r="AR13" s="9">
-        <f t="shared" ref="AR13:AR34" si="4">AP13</f>
+        <f t="shared" ref="AR13:AR34" si="5">AP13</f>
         <v>0.30138888888888887</v>
       </c>
       <c r="AS13" s="9">
         <v>0.30694444444444446</v>
       </c>
       <c r="AT13" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555913E-3</v>
       </c>
-      <c r="AU13" s="61">
+      <c r="AU13" s="49">
         <v>8</v>
       </c>
       <c r="AV13" s="7">
@@ -2789,10 +2793,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="BB13" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8611111111111494E-3</v>
       </c>
-      <c r="BC13" s="61">
+      <c r="BC13" s="49">
         <v>7</v>
       </c>
       <c r="BD13" s="7">
@@ -2813,8 +2817,8 @@
       <c r="BI13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ13" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ13" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK13" s="35"/>
@@ -2847,11 +2851,11 @@
       <c r="Z14" s="9">
         <v>0.30833333333333335</v>
       </c>
-      <c r="AA14" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA14" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB14" s="60">
+      <c r="AB14" s="48">
         <v>2</v>
       </c>
       <c r="AC14" s="4">
@@ -2879,10 +2883,10 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="AK14" s="37">
-        <f>AJ14-AI14</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL14" s="61">
+      <c r="AL14" s="49">
         <v>1</v>
       </c>
       <c r="AM14" s="4">
@@ -2901,17 +2905,17 @@
         <v>2</v>
       </c>
       <c r="AR14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30277777777777776</v>
       </c>
       <c r="AS14" s="9">
         <v>0.30694444444444446</v>
       </c>
       <c r="AT14" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666667074E-3</v>
       </c>
-      <c r="AU14" s="61">
+      <c r="AU14" s="49">
         <v>6</v>
       </c>
       <c r="AV14" s="7">
@@ -2933,10 +2937,10 @@
         <v>0.32569444444444445</v>
       </c>
       <c r="BB14" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC14" s="61">
+      <c r="BC14" s="49">
         <v>4</v>
       </c>
       <c r="BD14" s="7">
@@ -2957,8 +2961,8 @@
       <c r="BI14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ14" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ14" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK14" s="35"/>
@@ -2991,11 +2995,11 @@
       <c r="Z15" s="9">
         <v>0.31041666666666667</v>
       </c>
-      <c r="AA15" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA15" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AB15" s="60">
+      <c r="AB15" s="48">
         <v>3</v>
       </c>
       <c r="AC15" s="4">
@@ -3023,10 +3027,10 @@
         <v>0.31805555555555554</v>
       </c>
       <c r="AK15" s="37">
-        <f>AJ15-AI15</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL15" s="61">
+      <c r="AL15" s="49">
         <v>1</v>
       </c>
       <c r="AM15" s="4">
@@ -3045,17 +3049,17 @@
         <v>5</v>
       </c>
       <c r="AR15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30277777777777776</v>
       </c>
       <c r="AS15" s="9">
         <v>0.30486111111111114</v>
       </c>
       <c r="AT15" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333814E-3</v>
       </c>
-      <c r="AU15" s="61">
+      <c r="AU15" s="49">
         <v>3</v>
       </c>
       <c r="AV15" s="7">
@@ -3077,10 +3081,10 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="BB15" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC15" s="61">
+      <c r="BC15" s="49">
         <v>3</v>
       </c>
       <c r="BD15" s="7">
@@ -3101,8 +3105,8 @@
       <c r="BI15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ15" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ15" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK15" s="35"/>
@@ -3134,11 +3138,11 @@
       <c r="Z16" s="9">
         <v>0.31111111111111112</v>
       </c>
-      <c r="AA16" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA16" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB16" s="60">
+      <c r="AB16" s="48">
         <v>2</v>
       </c>
       <c r="AC16" s="4">
@@ -3166,10 +3170,10 @@
         <v>0.32083333333333336</v>
       </c>
       <c r="AK16" s="37">
-        <f>AJ16-AI16</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444449749E-4</v>
       </c>
-      <c r="AL16" s="61">
+      <c r="AL16" s="49">
         <v>1</v>
       </c>
       <c r="AM16" s="4">
@@ -3188,17 +3192,17 @@
         <v>7</v>
       </c>
       <c r="AR16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3034722222222222</v>
       </c>
       <c r="AS16" s="9">
         <v>0.30555555555555558</v>
       </c>
       <c r="AT16" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333814E-3</v>
       </c>
-      <c r="AU16" s="61">
+      <c r="AU16" s="49">
         <v>3</v>
       </c>
       <c r="AV16" s="7">
@@ -3220,10 +3224,10 @@
         <v>0.33055555555555555</v>
       </c>
       <c r="BB16" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC16" s="61">
+      <c r="BC16" s="49">
         <v>4</v>
       </c>
       <c r="BD16" s="7">
@@ -3244,8 +3248,8 @@
       <c r="BI16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ16" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ16" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK16" s="35"/>
@@ -3280,11 +3284,11 @@
       <c r="Z17" s="9">
         <v>0.3125</v>
       </c>
-      <c r="AA17" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA17" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AB17" s="60">
+      <c r="AB17" s="48">
         <v>3</v>
       </c>
       <c r="AC17" s="4">
@@ -3312,10 +3316,10 @@
         <v>0.32361111111111113</v>
       </c>
       <c r="AK17" s="37">
-        <f>AJ17-AI17</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL17" s="61">
+      <c r="AL17" s="49">
         <v>1</v>
       </c>
       <c r="AM17" s="4">
@@ -3334,17 +3338,17 @@
         <v>3</v>
       </c>
       <c r="AR17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3034722222222222</v>
       </c>
       <c r="AS17" s="9">
         <v>0.30833333333333335</v>
       </c>
       <c r="AT17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8611111111111494E-3</v>
       </c>
-      <c r="AU17" s="61">
+      <c r="AU17" s="49">
         <v>7</v>
       </c>
       <c r="AV17" s="7">
@@ -3366,10 +3370,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BB17" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC17" s="61">
+      <c r="BC17" s="49">
         <v>4</v>
       </c>
       <c r="BD17" s="7">
@@ -3390,8 +3394,8 @@
       <c r="BI17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ17" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ17" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK17" s="35"/>
@@ -3402,11 +3406,11 @@
       <c r="BP17" s="33"/>
     </row>
     <row r="18" spans="1:68" ht="14.25" customHeight="1">
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="Q18" s="3" t="s">
         <v>1</v>
       </c>
@@ -3431,11 +3435,11 @@
       <c r="Z18" s="9">
         <v>0.31388888888888888</v>
       </c>
-      <c r="AA18" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA18" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB18" s="60">
+      <c r="AB18" s="48">
         <v>4</v>
       </c>
       <c r="AC18" s="4">
@@ -3463,10 +3467,10 @@
         <v>20</v>
       </c>
       <c r="AK18" s="37" t="e">
-        <f>AJ18-AI18</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL18" s="61">
+      <c r="AL18" s="49">
         <v>0</v>
       </c>
       <c r="AM18" s="4">
@@ -3485,17 +3489,17 @@
         <v>9</v>
       </c>
       <c r="AR18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3034722222222222</v>
       </c>
       <c r="AS18" s="9">
         <v>0.30694444444444446</v>
       </c>
       <c r="AT18" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="AU18" s="61">
+      <c r="AU18" s="49">
         <v>5</v>
       </c>
       <c r="AV18" s="7">
@@ -3517,10 +3521,10 @@
         <v>0.33541666666666664</v>
       </c>
       <c r="BB18" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC18" s="61">
+      <c r="BC18" s="49">
         <v>3</v>
       </c>
       <c r="BD18" s="7">
@@ -3541,8 +3545,8 @@
       <c r="BI18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ18" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ18" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK18" s="35"/>
@@ -3580,11 +3584,11 @@
       <c r="Z19" s="9">
         <v>0.31388888888888888</v>
       </c>
-      <c r="AA19" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA19" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB19" s="60">
+      <c r="AB19" s="48">
         <v>2</v>
       </c>
       <c r="AC19" s="4">
@@ -3612,10 +3616,10 @@
         <v>20</v>
       </c>
       <c r="AK19" s="37" t="e">
-        <f>AJ19-AI19</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL19" s="61">
+      <c r="AL19" s="49">
         <v>0</v>
       </c>
       <c r="AM19" s="4">
@@ -3634,17 +3638,17 @@
         <v>11</v>
       </c>
       <c r="AR19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3034722222222222</v>
       </c>
       <c r="AS19" s="9">
         <v>0.30902777777777779</v>
       </c>
       <c r="AT19" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5555555555555913E-3</v>
       </c>
-      <c r="AU19" s="61">
+      <c r="AU19" s="49">
         <v>8</v>
       </c>
       <c r="AV19" s="7">
@@ -3666,10 +3670,10 @@
         <v>0.33819444444444446</v>
       </c>
       <c r="BB19" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777778234E-3</v>
       </c>
-      <c r="BC19" s="61">
+      <c r="BC19" s="49">
         <v>4</v>
       </c>
       <c r="BD19" s="7">
@@ -3690,8 +3694,8 @@
       <c r="BI19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ19" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ19" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK19" s="35"/>
@@ -3703,12 +3707,12 @@
     </row>
     <row r="20" spans="1:68" ht="14.25" customHeight="1">
       <c r="D20" s="23"/>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
       <c r="Q20" s="3"/>
       <c r="T20" s="7">
         <v>16</v>
@@ -3731,11 +3735,11 @@
       <c r="Z20" s="9">
         <v>0.31666666666666665</v>
       </c>
-      <c r="AA20" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA20" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB20" s="60">
+      <c r="AB20" s="48">
         <v>4</v>
       </c>
       <c r="AC20" s="4">
@@ -3763,10 +3767,10 @@
         <v>0.32708333333333334</v>
       </c>
       <c r="AK20" s="37">
-        <f>AJ20-AI20</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL20" s="61">
+      <c r="AL20" s="49">
         <v>1</v>
       </c>
       <c r="AM20" s="4">
@@ -3785,17 +3789,17 @@
         <v>10</v>
       </c>
       <c r="AR20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30416666666666664</v>
       </c>
       <c r="AS20" s="9">
         <v>0.30763888888888891</v>
       </c>
       <c r="AT20" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="AU20" s="61">
+      <c r="AU20" s="49">
         <v>5</v>
       </c>
       <c r="AV20" s="7">
@@ -3817,10 +3821,10 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="BB20" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC20" s="61">
+      <c r="BC20" s="49">
         <v>3</v>
       </c>
       <c r="BD20" s="7">
@@ -3841,8 +3845,8 @@
       <c r="BI20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ20" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ20" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK20" s="35"/>
@@ -3884,42 +3888,42 @@
       <c r="Z21" s="9">
         <v>0.31527777777777777</v>
       </c>
-      <c r="AA21" s="57">
+      <c r="AA21" s="45">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="AB21" s="48">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>17</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="12">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="AG21" s="12">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="AK21" s="37">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB21" s="60">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>17</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="12">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="AG21" s="12">
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AI21" s="12">
-        <v>0.32708333333333334</v>
-      </c>
-      <c r="AJ21" s="12">
-        <v>0.32847222222222222</v>
-      </c>
-      <c r="AK21" s="37">
-        <f>AJ21-AI21</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="AL21" s="61">
+      <c r="AL21" s="49">
         <v>2</v>
       </c>
       <c r="AM21" s="4">
@@ -3938,17 +3942,17 @@
         <v>5</v>
       </c>
       <c r="AR21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30416666666666664</v>
       </c>
       <c r="AS21" s="9">
         <v>0.30763888888888891</v>
       </c>
       <c r="AT21" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="AU21" s="61">
+      <c r="AU21" s="49">
         <v>5</v>
       </c>
       <c r="AV21" s="7">
@@ -3970,10 +3974,10 @@
         <v>0.34236111111111112</v>
       </c>
       <c r="BB21" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC21" s="61">
+      <c r="BC21" s="49">
         <v>3</v>
       </c>
       <c r="BD21" s="7">
@@ -3994,8 +3998,8 @@
       <c r="BI21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ21" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ21" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK21" s="35"/>
@@ -4023,17 +4027,17 @@
         <v>2</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" ref="Y22:Y25" si="5">W22</f>
+        <f t="shared" ref="Y22:Y25" si="6">W22</f>
         <v>0.31527777777777777</v>
       </c>
       <c r="Z22" s="9">
         <v>0.31805555555555554</v>
       </c>
-      <c r="AA22" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA22" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB22" s="60">
+      <c r="AB22" s="48">
         <v>4</v>
       </c>
       <c r="AC22" s="4">
@@ -4061,10 +4065,10 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="AK22" s="37">
-        <f>AJ22-AI22</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL22" s="61">
+      <c r="AL22" s="49">
         <v>1</v>
       </c>
       <c r="AM22" s="4">
@@ -4083,17 +4087,17 @@
         <v>4</v>
       </c>
       <c r="AR22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="AS22" s="9">
         <v>0.30763888888888891</v>
       </c>
       <c r="AT22" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AU22" s="61">
+      <c r="AU22" s="49">
         <v>3</v>
       </c>
       <c r="AV22" s="7">
@@ -4115,10 +4119,10 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="BB22" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC22" s="61">
+      <c r="BC22" s="49">
         <v>4</v>
       </c>
       <c r="BD22" s="7">
@@ -4139,8 +4143,8 @@
       <c r="BI22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ22" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ22" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK22" s="35"/>
@@ -4175,17 +4179,17 @@
         <v>1</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31666666666666665</v>
       </c>
       <c r="Z23" s="9">
         <v>0.32013888888888886</v>
       </c>
-      <c r="AA23" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA23" s="45">
+        <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="AB23" s="60">
+      <c r="AB23" s="48">
         <v>5</v>
       </c>
       <c r="AC23" s="4">
@@ -4213,10 +4217,10 @@
         <v>0.33263888888888887</v>
       </c>
       <c r="AK23" s="37">
-        <f>AJ23-AI23</f>
+        <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AL23" s="61">
+      <c r="AL23" s="49">
         <v>2</v>
       </c>
       <c r="AM23" s="4">
@@ -4235,17 +4239,17 @@
         <v>6</v>
       </c>
       <c r="AR23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="AS23" s="9">
         <v>0.30833333333333335</v>
       </c>
       <c r="AT23" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AU23" s="61">
+      <c r="AU23" s="49">
         <v>4</v>
       </c>
       <c r="AV23" s="7">
@@ -4267,10 +4271,10 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="BB23" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="BC23" s="61">
+      <c r="BC23" s="49">
         <v>3</v>
       </c>
       <c r="BD23" s="7">
@@ -4291,8 +4295,8 @@
       <c r="BI23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ23" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ23" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK23" s="35"/>
@@ -4314,24 +4318,24 @@
         <v>0.31388888888888888</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" ref="W24:W25" si="6">Z22</f>
+        <f t="shared" ref="W24:W25" si="7">Z22</f>
         <v>0.31805555555555554</v>
       </c>
       <c r="X24" s="10">
         <v>2</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31805555555555554</v>
       </c>
       <c r="Z24" s="9">
         <v>0.31944444444444442</v>
       </c>
-      <c r="AA24" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA24" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB24" s="60">
+      <c r="AB24" s="48">
         <v>2</v>
       </c>
       <c r="AC24" s="4">
@@ -4359,10 +4363,10 @@
         <v>20</v>
       </c>
       <c r="AK24" s="37" t="e">
-        <f>AJ24-AI24</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL24" s="61">
+      <c r="AL24" s="49">
         <v>0</v>
       </c>
       <c r="AM24" s="4">
@@ -4381,17 +4385,17 @@
         <v>3</v>
       </c>
       <c r="AR24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30694444444444446</v>
       </c>
       <c r="AS24" s="9">
         <v>0.30902777777777779</v>
       </c>
       <c r="AT24" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="AU24" s="61">
+      <c r="AU24" s="49">
         <v>3</v>
       </c>
       <c r="AV24" s="7">
@@ -4413,10 +4417,10 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="BB24" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="BC24" s="61">
+      <c r="BC24" s="49">
         <v>5</v>
       </c>
       <c r="BD24" s="7">
@@ -4437,8 +4441,8 @@
       <c r="BI24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ24" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ24" s="46">
+        <f t="shared" si="4"/>
         <v>6.9444444444444198E-4</v>
       </c>
       <c r="BK24" s="35"/>
@@ -4467,24 +4471,24 @@
         <v>0.31388888888888888</v>
       </c>
       <c r="W25" s="9">
+        <f t="shared" si="7"/>
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="9">
         <f t="shared" si="6"/>
         <v>0.32013888888888886</v>
       </c>
-      <c r="X25" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="5"/>
-        <v>0.32013888888888886</v>
-      </c>
       <c r="Z25" s="9">
         <v>0.3215277777777778</v>
       </c>
-      <c r="AA25" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA25" s="45">
+        <f t="shared" si="1"/>
         <v>1.3888888888889395E-3</v>
       </c>
-      <c r="AB25" s="60">
+      <c r="AB25" s="48">
         <v>2</v>
       </c>
       <c r="AC25" s="4">
@@ -4512,10 +4516,10 @@
         <v>20</v>
       </c>
       <c r="AK25" s="37" t="e">
-        <f>AJ25-AI25</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL25" s="61">
+      <c r="AL25" s="49">
         <v>0</v>
       </c>
       <c r="AM25" s="4">
@@ -4534,17 +4538,17 @@
         <v>6</v>
       </c>
       <c r="AR25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30694444444444446</v>
       </c>
       <c r="AS25" s="9">
         <v>0.30833333333333335</v>
       </c>
       <c r="AT25" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU25" s="61">
+      <c r="AU25" s="49">
         <v>2</v>
       </c>
       <c r="AV25" s="7">
@@ -4566,10 +4570,10 @@
         <v>0.3527777777777778</v>
       </c>
       <c r="BB25" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0833333333333814E-3</v>
       </c>
-      <c r="BC25" s="61">
+      <c r="BC25" s="49">
         <v>3</v>
       </c>
       <c r="BD25" s="7">
@@ -4590,8 +4594,8 @@
       <c r="BI25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ25" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ25" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK25" s="35"/>
@@ -4624,11 +4628,11 @@
       <c r="Z26" s="9">
         <v>0.3215277777777778</v>
       </c>
-      <c r="AA26" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA26" s="45">
+        <f t="shared" si="1"/>
         <v>2.0833333333333814E-3</v>
       </c>
-      <c r="AB26" s="60">
+      <c r="AB26" s="48">
         <v>3</v>
       </c>
       <c r="AC26" s="4">
@@ -4656,10 +4660,10 @@
         <v>0.33402777777777776</v>
       </c>
       <c r="AK26" s="37">
-        <f>AJ26-AI26</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL26" s="61">
+      <c r="AL26" s="49">
         <v>1</v>
       </c>
       <c r="AM26" s="4">
@@ -4678,17 +4682,17 @@
         <v>8</v>
       </c>
       <c r="AR26" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30763888888888891</v>
       </c>
       <c r="AS26" s="9">
         <v>0.31180555555555556</v>
       </c>
       <c r="AT26" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1666666666666519E-3</v>
       </c>
-      <c r="AU26" s="61">
+      <c r="AU26" s="49">
         <v>6</v>
       </c>
       <c r="AV26" s="7">
@@ -4710,10 +4714,10 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="BB26" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC26" s="61">
+      <c r="BC26" s="49">
         <v>4</v>
       </c>
       <c r="BD26" s="7">
@@ -4734,8 +4738,8 @@
       <c r="BI26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ26" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ26" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK26" s="35"/>
@@ -4768,11 +4772,11 @@
       <c r="Z27" s="9">
         <v>0.32222222222222224</v>
       </c>
-      <c r="AA27" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA27" s="45">
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AB27" s="60">
+      <c r="AB27" s="48">
         <v>1</v>
       </c>
       <c r="AC27" s="4">
@@ -4800,10 +4804,10 @@
         <v>0.33541666666666664</v>
       </c>
       <c r="AK27" s="37">
-        <f>AJ27-AI27</f>
+        <f t="shared" si="0"/>
         <v>-7.6745833333333335</v>
       </c>
-      <c r="AL27" s="61">
+      <c r="AL27" s="49">
         <v>2</v>
       </c>
       <c r="AM27" s="4">
@@ -4822,17 +4826,17 @@
         <v>1</v>
       </c>
       <c r="AR27" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30763888888888891</v>
       </c>
       <c r="AS27" s="9">
         <v>0.30902777777777779</v>
       </c>
       <c r="AT27" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU27" s="61">
+      <c r="AU27" s="49">
         <v>2</v>
       </c>
       <c r="AV27" s="7">
@@ -4854,10 +4858,10 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="BB27" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BC27" s="61">
+      <c r="BC27" s="49">
         <v>0</v>
       </c>
       <c r="BD27" s="7">
@@ -4878,8 +4882,8 @@
       <c r="BI27" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ27" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ27" s="46">
+        <f t="shared" si="4"/>
         <v>1.388888888888884E-3</v>
       </c>
       <c r="BK27" s="35"/>
@@ -4907,7 +4911,7 @@
         <v>0.32013888888888886</v>
       </c>
       <c r="W28" s="9">
-        <f t="shared" ref="W28:W29" si="7">Z26</f>
+        <f t="shared" ref="W28:W29" si="8">Z26</f>
         <v>0.3215277777777778</v>
       </c>
       <c r="X28" s="10">
@@ -4919,42 +4923,42 @@
       <c r="Z28" s="9">
         <v>0.32291666666666669</v>
       </c>
-      <c r="AA28" s="57">
+      <c r="AA28" s="45">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="AB28" s="48">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>24</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>0.33541666666666664</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AJ28" s="12">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="AK28" s="37">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB28" s="60">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>24</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>0.33541666666666664</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>0.33611111111111114</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>2</v>
-      </c>
-      <c r="AI28" s="12">
-        <v>0.33611111111111114</v>
-      </c>
-      <c r="AJ28" s="12">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="AK28" s="37">
-        <f>AJ28-AI28</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="AL28" s="61">
+      <c r="AL28" s="49">
         <v>2</v>
       </c>
       <c r="AM28" s="4">
@@ -4973,17 +4977,17 @@
         <v>2</v>
       </c>
       <c r="AR28" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30763888888888891</v>
       </c>
       <c r="AS28" s="9">
         <v>0.31041666666666667</v>
       </c>
       <c r="AT28" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AU28" s="61">
+      <c r="AU28" s="49">
         <v>4</v>
       </c>
       <c r="AV28" s="7">
@@ -5005,10 +5009,10 @@
         <v>0.35902777777777778</v>
       </c>
       <c r="BB28" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="BC28" s="61">
+      <c r="BC28" s="49">
         <v>5</v>
       </c>
       <c r="BD28" s="7">
@@ -5029,8 +5033,8 @@
       <c r="BI28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ28" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ28" s="46">
+        <f t="shared" si="4"/>
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="BK28" s="35"/>
@@ -5041,14 +5045,14 @@
       <c r="BP28" s="33"/>
     </row>
     <row r="29" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="M29" s="23"/>
       <c r="O29" s="23"/>
       <c r="Q29" s="3"/>
@@ -5062,7 +5066,7 @@
         <v>0.3215277777777778</v>
       </c>
       <c r="W29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32222222222222224</v>
       </c>
       <c r="X29" s="10">
@@ -5074,11 +5078,11 @@
       <c r="Z29" s="9">
         <v>0.32222222222222224</v>
       </c>
-      <c r="AA29" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA29" s="45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="60">
+      <c r="AB29" s="48">
         <v>0</v>
       </c>
       <c r="AC29" s="4">
@@ -5106,10 +5110,10 @@
         <v>0.33958333333333335</v>
       </c>
       <c r="AK29" s="37">
-        <f>AJ29-AI29</f>
+        <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AL29" s="61">
+      <c r="AL29" s="49">
         <v>2</v>
       </c>
       <c r="AM29" s="4">
@@ -5128,17 +5132,17 @@
         <v>4</v>
       </c>
       <c r="AR29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30833333333333335</v>
       </c>
       <c r="AS29" s="9">
         <v>0.30972222222222223</v>
       </c>
       <c r="AT29" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU29" s="61">
+      <c r="AU29" s="49">
         <v>2</v>
       </c>
       <c r="AV29" s="7">
@@ -5160,10 +5164,10 @@
         <v>0.36180555555555555</v>
       </c>
       <c r="BB29" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC29" s="61">
+      <c r="BC29" s="49">
         <v>4</v>
       </c>
       <c r="BD29" s="7">
@@ -5184,8 +5188,8 @@
       <c r="BI29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ29" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ29" s="46">
+        <f t="shared" si="4"/>
         <v>2.0833333333333259E-3</v>
       </c>
       <c r="BK29" s="35"/>
@@ -5196,7 +5200,7 @@
       <c r="BP29" s="33"/>
     </row>
     <row r="30" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B30" s="50"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -5227,11 +5231,11 @@
       <c r="Z30" s="9">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AA30" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA30" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB30" s="60">
+      <c r="AB30" s="48">
         <v>4</v>
       </c>
       <c r="AC30" s="4">
@@ -5257,10 +5261,10 @@
         <v>0.34236111111111112</v>
       </c>
       <c r="AK30" s="37">
-        <f>AJ30-AI30</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL30" s="61">
+      <c r="AL30" s="49">
         <v>1</v>
       </c>
       <c r="AM30" s="4">
@@ -5279,17 +5283,17 @@
         <v>5</v>
       </c>
       <c r="AR30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30833333333333335</v>
       </c>
       <c r="AS30" s="9">
         <v>0.31111111111111112</v>
       </c>
       <c r="AT30" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AU30" s="61">
+      <c r="AU30" s="49">
         <v>4</v>
       </c>
       <c r="AV30" s="7">
@@ -5311,10 +5315,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="BB30" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC30" s="61">
+      <c r="BC30" s="49">
         <v>4</v>
       </c>
       <c r="BD30" s="7">
@@ -5335,8 +5339,8 @@
       <c r="BI30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ30" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ30" s="46">
+        <f t="shared" si="4"/>
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="BK30" s="35"/>
@@ -5372,42 +5376,42 @@
       <c r="Z31" s="9">
         <v>0.32430555555555557</v>
       </c>
-      <c r="AA31" s="57">
+      <c r="AA31" s="45">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+      <c r="AB31" s="48">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF31" s="12">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="AG31" s="12">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="12">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="AJ31" s="12">
+        <v>0.34375</v>
+      </c>
+      <c r="AK31" s="37">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB31" s="60">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>27</v>
-      </c>
-      <c r="AD31" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE31" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF31" s="12">
-        <v>0.34097222222222223</v>
-      </c>
-      <c r="AG31" s="12">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>2</v>
-      </c>
-      <c r="AI31" s="12">
-        <v>0.34236111111111112</v>
-      </c>
-      <c r="AJ31" s="12">
-        <v>0.34375</v>
-      </c>
-      <c r="AK31" s="37">
-        <f>AJ31-AI31</f>
-        <v>1.388888888888884E-3</v>
-      </c>
-      <c r="AL31" s="61">
+      <c r="AL31" s="49">
         <v>2</v>
       </c>
       <c r="AM31" s="4">
@@ -5426,17 +5430,17 @@
         <v>4</v>
       </c>
       <c r="AR31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30833333333333335</v>
       </c>
       <c r="AS31" s="9">
         <v>0.31111111111111112</v>
       </c>
       <c r="AT31" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AU31" s="61">
+      <c r="AU31" s="49">
         <v>4</v>
       </c>
       <c r="AV31" s="7">
@@ -5458,10 +5462,10 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="BB31" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4722222222222654E-3</v>
       </c>
-      <c r="BC31" s="61">
+      <c r="BC31" s="49">
         <v>5</v>
       </c>
       <c r="BD31" s="7">
@@ -5482,8 +5486,8 @@
       <c r="BI31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ31" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ31" s="46">
+        <f t="shared" si="4"/>
         <v>2.7777777777777679E-3</v>
       </c>
       <c r="BK31" s="35"/>
@@ -5512,17 +5516,17 @@
         <v>2</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" ref="Y32:Y33" si="8">W32</f>
+        <f t="shared" ref="Y32:Y33" si="9">W32</f>
         <v>0.32430555555555557</v>
       </c>
       <c r="Z32" s="9">
         <v>0.32569444444444445</v>
       </c>
-      <c r="AA32" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA32" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB32" s="60">
+      <c r="AB32" s="48">
         <v>2</v>
       </c>
       <c r="AC32" s="4">
@@ -5550,10 +5554,10 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="AK32" s="37">
-        <f>AJ32-AI32</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-4</v>
       </c>
-      <c r="AL32" s="61">
+      <c r="AL32" s="49">
         <v>1</v>
       </c>
       <c r="AM32" s="4">
@@ -5572,17 +5576,17 @@
         <v>1</v>
       </c>
       <c r="AR32" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30902777777777779</v>
       </c>
       <c r="AS32" s="9">
         <v>0.31041666666666667</v>
       </c>
       <c r="AT32" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU32" s="61">
+      <c r="AU32" s="49">
         <v>2</v>
       </c>
       <c r="AV32" s="7">
@@ -5604,10 +5608,10 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="BB32" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC32" s="61">
+      <c r="BC32" s="49">
         <v>4</v>
       </c>
       <c r="BD32" s="7">
@@ -5628,8 +5632,8 @@
       <c r="BI32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ32" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ32" s="46">
+        <f t="shared" si="4"/>
         <v>2.7777777777778234E-3</v>
       </c>
       <c r="BK32" s="35"/>
@@ -5658,17 +5662,17 @@
         <v>1</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="Z33" s="9">
         <v>0.3263888888888889</v>
       </c>
-      <c r="AA33" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA33" s="45">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AB33" s="60">
+      <c r="AB33" s="48">
         <v>2</v>
       </c>
       <c r="AC33" s="4">
@@ -5696,10 +5700,10 @@
         <v>20</v>
       </c>
       <c r="AK33" s="37" t="e">
-        <f>AJ33-AI33</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL33" s="61">
+      <c r="AL33" s="49">
         <v>0</v>
       </c>
       <c r="AM33" s="4">
@@ -5718,17 +5722,17 @@
         <v>10</v>
       </c>
       <c r="AR33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30902777777777779</v>
       </c>
       <c r="AS33" s="9">
         <v>0.31041666666666667</v>
       </c>
       <c r="AT33" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.388888888888884E-3</v>
       </c>
-      <c r="AU33" s="61">
+      <c r="AU33" s="49">
         <v>2</v>
       </c>
       <c r="AV33" s="7">
@@ -5750,10 +5754,10 @@
         <v>0.37361111111111112</v>
       </c>
       <c r="BB33" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC33" s="61">
+      <c r="BC33" s="49">
         <v>4</v>
       </c>
       <c r="BD33" s="7">
@@ -5774,8 +5778,8 @@
       <c r="BI33" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ33" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ33" s="46">
+        <f t="shared" si="4"/>
         <v>2.7777777777778234E-3</v>
       </c>
       <c r="BK33" s="35"/>
@@ -5808,11 +5812,11 @@
       <c r="Z34" s="9">
         <v>0.32847222222222222</v>
       </c>
-      <c r="AA34" s="57">
-        <f t="shared" si="0"/>
+      <c r="AA34" s="45">
+        <f t="shared" si="1"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AB34" s="60">
+      <c r="AB34" s="48">
         <v>4</v>
       </c>
       <c r="AC34" s="4">
@@ -5840,10 +5844,10 @@
         <v>20</v>
       </c>
       <c r="AK34" s="37" t="e">
-        <f>AJ34-AI34</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AL34" s="61">
+      <c r="AL34" s="49">
         <v>0</v>
       </c>
       <c r="AM34" s="4">
@@ -5862,17 +5866,17 @@
         <v>11</v>
       </c>
       <c r="AR34" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30972222222222223</v>
       </c>
       <c r="AS34" s="9">
         <v>0.3125</v>
       </c>
       <c r="AT34" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="AU34" s="61">
+      <c r="AU34" s="49">
         <v>4</v>
       </c>
       <c r="AV34" s="7">
@@ -5894,10 +5898,10 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="BB34" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7777777777777679E-3</v>
       </c>
-      <c r="BC34" s="61">
+      <c r="BC34" s="49">
         <v>4</v>
       </c>
       <c r="BD34" s="7">
@@ -5918,8 +5922,8 @@
       <c r="BI34" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BJ34" s="58">
-        <f t="shared" si="3"/>
+      <c r="BJ34" s="46">
+        <f t="shared" si="4"/>
         <v>2.7777777777778234E-3</v>
       </c>
       <c r="BK34" s="35"/>
@@ -7599,6 +7603,10 @@
       <c r="BI109" s="1"/>
     </row>
     <row r="110" spans="19:61" ht="14.25" customHeight="1">
+      <c r="U110">
+        <f>SUM(U79:U109)</f>
+        <v>251</v>
+      </c>
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
@@ -23305,6 +23313,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="D2:N2"/>
@@ -23312,11 +23325,6 @@
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="AN3:AS3"/>
     <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PLANO DEL SISTEMA- CINE2.xlsx
+++ b/PLANO DEL SISTEMA- CINE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f87ca329e5780eae/Documentos/GitHub/Simulaci-n-de-Cinepolis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E63A294-2927-4192-B521-1B2A3F05445F}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE3CEC1-E61E-47AD-AE9B-3312276B7E4B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>DULCERIA</t>
   </si>
@@ -585,6 +585,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,19 +606,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X100" sqref="X100"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1287,19 +1287,19 @@
       <c r="BI1" s="1"/>
     </row>
     <row r="2" spans="4:68" ht="14.25" customHeight="1">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -1357,52 +1357,52 @@
       <c r="N3" s="2">
         <v>11</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="61"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="57"/>
-      <c r="AN3" s="50" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="61"/>
+      <c r="AN3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="57"/>
-      <c r="AW3" s="50" t="s">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="61"/>
+      <c r="AW3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="57"/>
-      <c r="BE3" s="50" t="s">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="61"/>
+      <c r="BE3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="51"/>
-      <c r="BH3" s="51"/>
-      <c r="BI3" s="52"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="58"/>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="33"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
       <c r="BO3" s="33"/>
       <c r="BP3" s="33"/>
     </row>
@@ -1792,12 +1792,12 @@
       <c r="BP6" s="33"/>
     </row>
     <row r="7" spans="4:68" ht="14.25" customHeight="1">
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="T7" s="7">
         <v>3</v>
       </c>
@@ -3406,11 +3406,11 @@
       <c r="BP17" s="33"/>
     </row>
     <row r="18" spans="1:68" ht="14.25" customHeight="1">
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="Q18" s="3" t="s">
         <v>1</v>
       </c>
@@ -3707,12 +3707,12 @@
     </row>
     <row r="20" spans="1:68" ht="14.25" customHeight="1">
       <c r="D20" s="23"/>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
       <c r="Q20" s="3"/>
       <c r="T20" s="7">
         <v>16</v>
@@ -5045,14 +5045,14 @@
       <c r="BP28" s="33"/>
     </row>
     <row r="29" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
       <c r="M29" s="23"/>
       <c r="O29" s="23"/>
       <c r="Q29" s="3"/>
@@ -5200,7 +5200,7 @@
       <c r="BP29" s="33"/>
     </row>
     <row r="30" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B30" s="61"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -6465,7 +6465,7 @@
       <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
     </row>
-    <row r="65" spans="17:61" ht="14.25" customHeight="1">
+    <row r="65" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
@@ -6478,7 +6478,7 @@
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
     </row>
-    <row r="66" spans="17:61" ht="14.25" customHeight="1">
+    <row r="66" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -6491,7 +6491,7 @@
       <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
     </row>
-    <row r="67" spans="17:61" ht="14.25" customHeight="1">
+    <row r="67" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -6504,7 +6504,7 @@
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
     </row>
-    <row r="68" spans="17:61" ht="14.25" customHeight="1">
+    <row r="68" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -6517,7 +6517,7 @@
       <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
     </row>
-    <row r="69" spans="17:61" ht="14.25" customHeight="1">
+    <row r="69" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -6530,7 +6530,7 @@
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
     </row>
-    <row r="70" spans="17:61" ht="14.25" customHeight="1">
+    <row r="70" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -6543,7 +6543,7 @@
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
     </row>
-    <row r="71" spans="17:61" ht="14.25" customHeight="1">
+    <row r="71" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -6556,7 +6556,7 @@
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
     </row>
-    <row r="72" spans="17:61" ht="14.25" customHeight="1">
+    <row r="72" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -6569,7 +6569,7 @@
       <c r="BH72" s="1"/>
       <c r="BI72" s="1"/>
     </row>
-    <row r="73" spans="17:61" ht="14.25" customHeight="1">
+    <row r="73" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -6582,7 +6582,7 @@
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
     </row>
-    <row r="74" spans="17:61" ht="14.25" customHeight="1">
+    <row r="74" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -6595,7 +6595,7 @@
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
     </row>
-    <row r="75" spans="17:61" ht="14.25" customHeight="1">
+    <row r="75" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -6608,7 +6608,7 @@
       <c r="BH75" s="1"/>
       <c r="BI75" s="1"/>
     </row>
-    <row r="76" spans="17:61" ht="14.25" customHeight="1">
+    <row r="76" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -6621,7 +6621,7 @@
       <c r="BH76" s="1"/>
       <c r="BI76" s="1"/>
     </row>
-    <row r="77" spans="17:61" ht="14.25" customHeight="1">
+    <row r="77" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
@@ -6634,7 +6634,7 @@
       <c r="BH77" s="1"/>
       <c r="BI77" s="1"/>
     </row>
-    <row r="78" spans="17:61" ht="14.25" customHeight="1">
+    <row r="78" spans="6:61" ht="14.25" customHeight="1">
       <c r="Q78" t="s">
         <v>64</v>
       </c>
@@ -6650,7 +6650,26 @@
       <c r="BH78" s="1"/>
       <c r="BI78" s="1"/>
     </row>
-    <row r="79" spans="17:61" ht="14.25" customHeight="1">
+    <row r="79" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="J79" s="37">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="K79" s="37">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L79">
+        <f>(H79*100)/251</f>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S79">
         <v>1</v>
       </c>
@@ -6679,7 +6698,27 @@
       <c r="BH79" s="1"/>
       <c r="BI79" s="1"/>
     </row>
-    <row r="80" spans="17:61" ht="14.25" customHeight="1">
+    <row r="80" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80">
+        <v>17</v>
+      </c>
+      <c r="J80" s="37">
+        <f>K79</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="K80" s="37">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="L80">
+        <f>(H80*I112)/H112</f>
+        <v>6.7729083665338647</v>
+      </c>
       <c r="S80">
         <v>2</v>
       </c>
@@ -6708,7 +6747,27 @@
       <c r="BH80" s="1"/>
       <c r="BI80" s="1"/>
     </row>
-    <row r="81" spans="19:61" ht="14.25" customHeight="1">
+    <row r="81" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="J81" s="37">
+        <f t="shared" ref="J81:J108" si="10">K80</f>
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="K81" s="37">
+        <v>0.30555555555555602</v>
+      </c>
+      <c r="L81">
+        <f>(H81*100)/251</f>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S81">
         <v>3</v>
       </c>
@@ -6730,7 +6789,27 @@
       <c r="BH81" s="1"/>
       <c r="BI81" s="1"/>
     </row>
-    <row r="82" spans="19:61" ht="14.25" customHeight="1">
+    <row r="82" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="J82" s="37">
+        <f t="shared" si="10"/>
+        <v>0.30555555555555602</v>
+      </c>
+      <c r="K82" s="37">
+        <v>0.30902777777777801</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:L108" si="11">(H82*100)/251</f>
+        <v>3.9840637450199203</v>
+      </c>
       <c r="S82">
         <v>4</v>
       </c>
@@ -6769,7 +6848,27 @@
       <c r="BH82" s="1"/>
       <c r="BI82" s="1"/>
     </row>
-    <row r="83" spans="19:61" ht="14.25" customHeight="1">
+    <row r="83" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="J83" s="37">
+        <f t="shared" si="10"/>
+        <v>0.30902777777777801</v>
+      </c>
+      <c r="K83" s="37">
+        <v>0.3125</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>1.9920318725099602</v>
+      </c>
       <c r="S83">
         <v>5</v>
       </c>
@@ -6805,7 +6904,27 @@
       <c r="BH83" s="1"/>
       <c r="BI83" s="1"/>
     </row>
-    <row r="84" spans="19:61" ht="14.25" customHeight="1">
+    <row r="84" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84">
+        <v>14</v>
+      </c>
+      <c r="J84" s="37">
+        <f t="shared" si="10"/>
+        <v>0.3125</v>
+      </c>
+      <c r="K84" s="37">
+        <v>0.31597222222222199</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>5.5776892430278888</v>
+      </c>
       <c r="S84">
         <v>6</v>
       </c>
@@ -6836,7 +6955,27 @@
       <c r="BH84" s="1"/>
       <c r="BI84" s="1"/>
     </row>
-    <row r="85" spans="19:61" ht="14.25" customHeight="1">
+    <row r="85" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="J85" s="37">
+        <f t="shared" si="10"/>
+        <v>0.31597222222222199</v>
+      </c>
+      <c r="K85" s="37">
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>1.593625498007968</v>
+      </c>
       <c r="S85">
         <v>7</v>
       </c>
@@ -6867,7 +7006,27 @@
       <c r="BH85" s="1"/>
       <c r="BI85" s="1"/>
     </row>
-    <row r="86" spans="19:61" ht="14.25" customHeight="1">
+    <row r="86" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="J86" s="37">
+        <f t="shared" si="10"/>
+        <v>0.31944444444444398</v>
+      </c>
+      <c r="K86" s="37">
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>3.1872509960159361</v>
+      </c>
       <c r="S86">
         <v>8</v>
       </c>
@@ -6898,7 +7057,27 @@
       <c r="BH86" s="1"/>
       <c r="BI86" s="1"/>
     </row>
-    <row r="87" spans="19:61" ht="14.25" customHeight="1">
+    <row r="87" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="J87" s="37">
+        <f t="shared" si="10"/>
+        <v>0.32291666666666702</v>
+      </c>
+      <c r="K87" s="37">
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="11"/>
+        <v>3.1872509960159361</v>
+      </c>
       <c r="S87">
         <v>9</v>
       </c>
@@ -6929,7 +7108,27 @@
       <c r="BH87" s="1"/>
       <c r="BI87" s="1"/>
     </row>
-    <row r="88" spans="19:61" ht="14.25" customHeight="1">
+    <row r="88" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="J88" s="37">
+        <f t="shared" si="10"/>
+        <v>0.32638888888888901</v>
+      </c>
+      <c r="K88" s="37">
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="11"/>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S88">
         <v>10</v>
       </c>
@@ -6960,7 +7159,27 @@
       <c r="BH88" s="1"/>
       <c r="BI88" s="1"/>
     </row>
-    <row r="89" spans="19:61" ht="14.25" customHeight="1">
+    <row r="89" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="J89" s="37">
+        <f t="shared" si="10"/>
+        <v>0.32986111111111099</v>
+      </c>
+      <c r="K89" s="37">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="11"/>
+        <v>3.9840637450199203</v>
+      </c>
       <c r="S89">
         <v>11</v>
       </c>
@@ -6991,7 +7210,27 @@
       <c r="BH89" s="1"/>
       <c r="BI89" s="1"/>
     </row>
-    <row r="90" spans="19:61" ht="14.25" customHeight="1">
+    <row r="90" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>43</v>
+      </c>
+      <c r="H90">
+        <v>12</v>
+      </c>
+      <c r="J90" s="37">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K90" s="37">
+        <v>0.33680555555555503</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="11"/>
+        <v>4.7808764940239046</v>
+      </c>
       <c r="S90">
         <v>12</v>
       </c>
@@ -7022,7 +7261,27 @@
       <c r="BH90" s="1"/>
       <c r="BI90" s="1"/>
     </row>
-    <row r="91" spans="19:61" ht="14.25" customHeight="1">
+    <row r="91" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F91">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="J91" s="37">
+        <f t="shared" si="10"/>
+        <v>0.33680555555555503</v>
+      </c>
+      <c r="K91" s="37">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="11"/>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S91">
         <v>13</v>
       </c>
@@ -7053,7 +7312,27 @@
       <c r="BH91" s="1"/>
       <c r="BI91" s="1"/>
     </row>
-    <row r="92" spans="19:61" ht="14.25" customHeight="1">
+    <row r="92" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F92">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="J92" s="37">
+        <f t="shared" si="10"/>
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="K92" s="37">
+        <v>0.34375</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="11"/>
+        <v>3.1872509960159361</v>
+      </c>
       <c r="S92">
         <v>14</v>
       </c>
@@ -7084,7 +7363,27 @@
       <c r="BH92" s="1"/>
       <c r="BI92" s="1"/>
     </row>
-    <row r="93" spans="19:61" ht="14.25" customHeight="1">
+    <row r="93" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F93">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="J93" s="37">
+        <f t="shared" si="10"/>
+        <v>0.34375</v>
+      </c>
+      <c r="K93" s="37">
+        <v>0.34722222222222199</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>3.9840637450199203</v>
+      </c>
       <c r="S93">
         <v>15</v>
       </c>
@@ -7115,7 +7414,27 @@
       <c r="BH93" s="1"/>
       <c r="BI93" s="1"/>
     </row>
-    <row r="94" spans="19:61" ht="14.25" customHeight="1">
+    <row r="94" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94">
+        <v>9</v>
+      </c>
+      <c r="J94" s="37">
+        <f t="shared" si="10"/>
+        <v>0.34722222222222199</v>
+      </c>
+      <c r="K94" s="37">
+        <v>0.35069444444444398</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="11"/>
+        <v>3.5856573705179282</v>
+      </c>
       <c r="S94">
         <v>16</v>
       </c>
@@ -7146,7 +7465,27 @@
       <c r="BH94" s="1"/>
       <c r="BI94" s="1"/>
     </row>
-    <row r="95" spans="19:61" ht="14.25" customHeight="1">
+    <row r="95" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F95">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95">
+        <v>12</v>
+      </c>
+      <c r="J95" s="37">
+        <f t="shared" si="10"/>
+        <v>0.35069444444444398</v>
+      </c>
+      <c r="K95" s="37">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="11"/>
+        <v>4.7808764940239046</v>
+      </c>
       <c r="S95">
         <v>17</v>
       </c>
@@ -7177,7 +7516,27 @@
       <c r="BH95" s="1"/>
       <c r="BI95" s="1"/>
     </row>
-    <row r="96" spans="19:61" ht="14.25" customHeight="1">
+    <row r="96" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F96">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="J96" s="37">
+        <f t="shared" si="10"/>
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="K96" s="37">
+        <v>0.35763888888888901</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="11"/>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S96">
         <v>18</v>
       </c>
@@ -7208,7 +7567,27 @@
       <c r="BH96" s="1"/>
       <c r="BI96" s="1"/>
     </row>
-    <row r="97" spans="19:61" ht="14.25" customHeight="1">
+    <row r="97" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F97">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="J97" s="37">
+        <f t="shared" si="10"/>
+        <v>0.35763888888888901</v>
+      </c>
+      <c r="K97" s="37">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="11"/>
+        <v>3.1872509960159361</v>
+      </c>
       <c r="S97">
         <v>19</v>
       </c>
@@ -7239,7 +7618,27 @@
       <c r="BH97" s="1"/>
       <c r="BI97" s="1"/>
     </row>
-    <row r="98" spans="19:61" ht="14.25" customHeight="1">
+    <row r="98" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>51</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="J98" s="37">
+        <f t="shared" si="10"/>
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="K98" s="37">
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="11"/>
+        <v>3.9840637450199203</v>
+      </c>
       <c r="S98">
         <v>20</v>
       </c>
@@ -7270,7 +7669,27 @@
       <c r="BH98" s="1"/>
       <c r="BI98" s="1"/>
     </row>
-    <row r="99" spans="19:61" ht="14.25" customHeight="1">
+    <row r="99" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F99">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="J99" s="37">
+        <f t="shared" si="10"/>
+        <v>0.36458333333333298</v>
+      </c>
+      <c r="K99" s="37">
+        <v>0.36805555555555503</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="11"/>
+        <v>2.3904382470119523</v>
+      </c>
       <c r="S99">
         <v>21</v>
       </c>
@@ -7301,7 +7720,27 @@
       <c r="BH99" s="1"/>
       <c r="BI99" s="1"/>
     </row>
-    <row r="100" spans="19:61" ht="14.25" customHeight="1">
+    <row r="100" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F100">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="J100" s="37">
+        <f t="shared" si="10"/>
+        <v>0.36805555555555503</v>
+      </c>
+      <c r="K100" s="37">
+        <v>0.37152777777777801</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="11"/>
+        <v>3.5856573705179282</v>
+      </c>
       <c r="S100">
         <v>22</v>
       </c>
@@ -7332,7 +7771,27 @@
       <c r="BH100" s="1"/>
       <c r="BI100" s="1"/>
     </row>
-    <row r="101" spans="19:61" ht="14.25" customHeight="1">
+    <row r="101" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F101">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="J101" s="37">
+        <f t="shared" si="10"/>
+        <v>0.37152777777777801</v>
+      </c>
+      <c r="K101" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="11"/>
+        <v>1.9920318725099602</v>
+      </c>
       <c r="S101">
         <v>23</v>
       </c>
@@ -7363,7 +7822,27 @@
       <c r="BH101" s="1"/>
       <c r="BI101" s="1"/>
     </row>
-    <row r="102" spans="19:61" ht="14.25" customHeight="1">
+    <row r="102" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="J102" s="37">
+        <f t="shared" si="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="K102" s="37">
+        <v>0.37847222222222199</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="11"/>
+        <v>2.3904382470119523</v>
+      </c>
       <c r="S102">
         <v>24</v>
       </c>
@@ -7394,7 +7873,27 @@
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
     </row>
-    <row r="103" spans="19:61" ht="14.25" customHeight="1">
+    <row r="103" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F103">
+        <v>25</v>
+      </c>
+      <c r="G103" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="J103" s="37">
+        <f t="shared" si="10"/>
+        <v>0.37847222222222199</v>
+      </c>
+      <c r="K103" s="37">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="11"/>
+        <v>3.1872509960159361</v>
+      </c>
       <c r="S103">
         <v>25</v>
       </c>
@@ -7425,7 +7924,27 @@
       <c r="BH103" s="1"/>
       <c r="BI103" s="1"/>
     </row>
-    <row r="104" spans="19:61" ht="14.25" customHeight="1">
+    <row r="104" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F104">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>57</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="J104" s="37">
+        <f t="shared" si="10"/>
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="K104" s="37">
+        <v>0.38541666666666602</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="11"/>
+        <v>3.9840637450199203</v>
+      </c>
       <c r="S104">
         <v>26</v>
       </c>
@@ -7456,7 +7975,27 @@
       <c r="BH104" s="1"/>
       <c r="BI104" s="1"/>
     </row>
-    <row r="105" spans="19:61" ht="14.25" customHeight="1">
+    <row r="105" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F105">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+      <c r="J105" s="37">
+        <f t="shared" si="10"/>
+        <v>0.38541666666666602</v>
+      </c>
+      <c r="K105" s="37">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="11"/>
+        <v>2.7888446215139444</v>
+      </c>
       <c r="S105">
         <v>27</v>
       </c>
@@ -7487,7 +8026,27 @@
       <c r="BH105" s="1"/>
       <c r="BI105" s="1"/>
     </row>
-    <row r="106" spans="19:61" ht="14.25" customHeight="1">
+    <row r="106" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F106">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s">
+        <v>59</v>
+      </c>
+      <c r="H106">
+        <v>9</v>
+      </c>
+      <c r="J106" s="37">
+        <f t="shared" si="10"/>
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="K106" s="37">
+        <v>0.39236111111111099</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="11"/>
+        <v>3.5856573705179282</v>
+      </c>
       <c r="S106">
         <v>28</v>
       </c>
@@ -7518,7 +8077,27 @@
       <c r="BH106" s="1"/>
       <c r="BI106" s="1"/>
     </row>
-    <row r="107" spans="19:61" ht="14.25" customHeight="1">
+    <row r="107" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F107">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107">
+        <v>5</v>
+      </c>
+      <c r="J107" s="37">
+        <f t="shared" si="10"/>
+        <v>0.39236111111111099</v>
+      </c>
+      <c r="K107" s="37">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="11"/>
+        <v>1.9920318725099602</v>
+      </c>
       <c r="S107">
         <v>29</v>
       </c>
@@ -7549,7 +8128,27 @@
       <c r="BH107" s="1"/>
       <c r="BI107" s="1"/>
     </row>
-    <row r="108" spans="19:61" ht="14.25" customHeight="1">
+    <row r="108" spans="6:61" ht="14.25" customHeight="1">
+      <c r="F108">
+        <v>30</v>
+      </c>
+      <c r="G108" t="s">
+        <v>61</v>
+      </c>
+      <c r="H108">
+        <v>6</v>
+      </c>
+      <c r="J108" s="37">
+        <f t="shared" si="10"/>
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="K108" s="37">
+        <v>0.39930555555555503</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="11"/>
+        <v>2.3904382470119523</v>
+      </c>
       <c r="S108">
         <v>30</v>
       </c>
@@ -7580,7 +8179,7 @@
       <c r="BH108" s="1"/>
       <c r="BI108" s="1"/>
     </row>
-    <row r="109" spans="19:61" ht="14.25" customHeight="1">
+    <row r="109" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
@@ -7602,7 +8201,7 @@
       <c r="BH109" s="1"/>
       <c r="BI109" s="1"/>
     </row>
-    <row r="110" spans="19:61" ht="14.25" customHeight="1">
+    <row r="110" spans="6:61" ht="14.25" customHeight="1">
       <c r="U110">
         <f>SUM(U79:U109)</f>
         <v>251</v>
@@ -7628,7 +8227,7 @@
       <c r="BH110" s="1"/>
       <c r="BI110" s="1"/>
     </row>
-    <row r="111" spans="19:61" ht="14.25" customHeight="1">
+    <row r="111" spans="6:61" ht="14.25" customHeight="1">
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
@@ -7650,7 +8249,14 @@
       <c r="BH111" s="1"/>
       <c r="BI111" s="1"/>
     </row>
-    <row r="112" spans="19:61" ht="14.25" customHeight="1">
+    <row r="112" spans="6:61" ht="14.25" customHeight="1">
+      <c r="H112">
+        <f>SUM(H79:H111)</f>
+        <v>251</v>
+      </c>
+      <c r="I112">
+        <v>100</v>
+      </c>
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
@@ -23313,11 +23919,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="D2:N2"/>
@@ -23325,6 +23926,11 @@
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="AN3:AS3"/>
     <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PLANO DEL SISTEMA- CINE2.xlsx
+++ b/PLANO DEL SISTEMA- CINE2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f87ca329e5780eae/Documentos/GitHub/Simulaci-n-de-Cinepolis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBE3CEC1-E61E-47AD-AE9B-3312276B7E4B}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D098253-8DE5-4574-B3C5-4C4EA910B0F9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="69">
   <si>
     <t>DULCERIA</t>
   </si>
@@ -231,18 +231,6 @@
   </si>
   <si>
     <t>Llegadas</t>
-  </si>
-  <si>
-    <t>Taquilla N</t>
-  </si>
-  <si>
-    <t>Taquilla A</t>
-  </si>
-  <si>
-    <t>Dulceria</t>
-  </si>
-  <si>
-    <t>Cafeteria</t>
   </si>
   <si>
     <t>%</t>
@@ -585,18 +573,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,7 +582,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,178 +660,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>201677</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>105105</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>531715</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF109E3-C4FA-137B-854B-90518E8F17DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="12476" t="13954" r="39031" b="61410"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16147648" y="21082517"/>
-          <a:ext cx="9530067" cy="3435953"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>92315</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>22945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>22946</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1733C679-A4F7-768C-6CA3-BA9CFA5FF813}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="32049" t="26761" r="22798" b="58701"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16038286" y="27275651"/>
-          <a:ext cx="8894802" cy="1972236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>34575</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>36690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>292985</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6A8CCC-4CF2-060D-E891-83006CA50D90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="12418" t="14476" r="40783" b="62373"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34784016" y="15993866"/>
-          <a:ext cx="7531028" cy="2663930"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>586876</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>147545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>88401</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>31128</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC6ACAA-C900-7D38-06E6-F4192C5E2738}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="12305" t="21490" r="38530" b="60175"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="34607935" y="22738604"/>
-          <a:ext cx="9631642" cy="2572995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>672354</xdr:colOff>
       <xdr:row>38</xdr:row>
@@ -869,7 +685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -913,7 +729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -957,7 +773,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1001,7 +817,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1225,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP94" sqref="AP94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1287,19 +1103,19 @@
       <c r="BI1" s="1"/>
     </row>
     <row r="2" spans="4:68" ht="14.25" customHeight="1">
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -1357,52 +1173,52 @@
       <c r="N3" s="2">
         <v>11</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="61"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="57"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AD3" s="56" t="s">
+      <c r="AD3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="61"/>
-      <c r="AN3" s="56" t="s">
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="57"/>
+      <c r="AN3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="61"/>
-      <c r="AW3" s="56" t="s">
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="57"/>
+      <c r="AW3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="61"/>
-      <c r="BE3" s="56" t="s">
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="57"/>
+      <c r="BE3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="58"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="52"/>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="33"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
       <c r="BO3" s="33"/>
       <c r="BP3" s="33"/>
     </row>
@@ -1792,12 +1608,12 @@
       <c r="BP6" s="33"/>
     </row>
     <row r="7" spans="4:68" ht="14.25" customHeight="1">
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="T7" s="7">
         <v>3</v>
       </c>
@@ -3406,11 +3222,11 @@
       <c r="BP17" s="33"/>
     </row>
     <row r="18" spans="1:68" ht="14.25" customHeight="1">
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
       <c r="Q18" s="3" t="s">
         <v>1</v>
       </c>
@@ -3707,12 +3523,12 @@
     </row>
     <row r="20" spans="1:68" ht="14.25" customHeight="1">
       <c r="D20" s="23"/>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
       <c r="Q20" s="3"/>
       <c r="T20" s="7">
         <v>16</v>
@@ -5045,14 +4861,14 @@
       <c r="BP28" s="33"/>
     </row>
     <row r="29" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
       <c r="M29" s="23"/>
       <c r="O29" s="23"/>
       <c r="Q29" s="3"/>
@@ -5200,7 +5016,7 @@
       <c r="BP29" s="33"/>
     </row>
     <row r="30" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B30" s="55"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -5936,7 +5752,7 @@
     <row r="35" spans="1:68" ht="14.25" customHeight="1">
       <c r="A35" s="27"/>
       <c r="T35" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U35" s="8">
         <f>SUM(U5:U34)</f>
@@ -5944,7 +5760,7 @@
       </c>
       <c r="V35" s="38"/>
       <c r="AC35" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD35" s="11">
         <f>SUM(AD5:AD34)</f>
@@ -5953,13 +5769,13 @@
       <c r="AE35" s="38"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AM35" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AN35" s="10">
         <f>SUM(AN5:AN34)</f>
@@ -5967,7 +5783,7 @@
       </c>
       <c r="AO35" s="38"/>
       <c r="AV35" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AW35" s="11">
         <f>SUM(AW5:AW34)</f>
@@ -6000,14 +5816,14 @@
       <c r="A36" s="27"/>
       <c r="S36" s="33"/>
       <c r="T36" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="U36" s="41">
         <f>U35/AE38</f>
         <v>0.19741100323624594</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD36" s="42">
         <f>AD35/AE38</f>
@@ -6024,14 +5840,14 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AM36" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AN36" s="43">
         <f>AN35/AE38</f>
         <v>0.2168284789644013</v>
       </c>
       <c r="AV36" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AW36" s="42">
         <f>AW35/AE38</f>
@@ -6075,7 +5891,7 @@
         <v>5</v>
       </c>
       <c r="AD38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AE38">
         <f>SUM(AD35,U35,AN35,AW35,BE35)</f>
@@ -6824,23 +6640,7 @@
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
-      <c r="AS82" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU82">
-        <v>1</v>
-      </c>
-      <c r="AW82">
-        <v>5</v>
-      </c>
       <c r="AX82" s="1"/>
-      <c r="AY82" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ82">
-        <f>AVERAGE(AW82:AW111)</f>
-        <v>4.166666666666667</v>
-      </c>
       <c r="BA82" s="1"/>
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
@@ -6883,20 +6683,7 @@
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
-      <c r="AU83">
-        <v>2</v>
-      </c>
-      <c r="AW83">
-        <v>3</v>
-      </c>
       <c r="AX83" s="1"/>
-      <c r="AY83" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ83">
-        <f>_xlfn.VAR.S(AW82:AW111)</f>
-        <v>3.7298850574712632</v>
-      </c>
       <c r="BA83" s="1"/>
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
@@ -6939,12 +6726,6 @@
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
-      <c r="AU84">
-        <v>3</v>
-      </c>
-      <c r="AW84">
-        <v>5</v>
-      </c>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
@@ -6990,12 +6771,6 @@
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
-      <c r="AU85">
-        <v>4</v>
-      </c>
-      <c r="AW85">
-        <v>7</v>
-      </c>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
@@ -7041,12 +6816,6 @@
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
-      <c r="AU86">
-        <v>5</v>
-      </c>
-      <c r="AW86">
-        <v>7</v>
-      </c>
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
@@ -7092,12 +6861,6 @@
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
-      <c r="AU87">
-        <v>6</v>
-      </c>
-      <c r="AW87">
-        <v>2</v>
-      </c>
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
@@ -7143,12 +6906,6 @@
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
-      <c r="AU88">
-        <v>7</v>
-      </c>
-      <c r="AW88">
-        <v>2</v>
-      </c>
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
@@ -7194,12 +6951,6 @@
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
-      <c r="AU89">
-        <v>8</v>
-      </c>
-      <c r="AW89">
-        <v>2</v>
-      </c>
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
@@ -7245,12 +6996,6 @@
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
-      <c r="AU90">
-        <v>9</v>
-      </c>
-      <c r="AW90">
-        <v>8</v>
-      </c>
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
@@ -7296,12 +7041,6 @@
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
-      <c r="AU91">
-        <v>10</v>
-      </c>
-      <c r="AW91">
-        <v>6</v>
-      </c>
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
@@ -7347,12 +7086,6 @@
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
-      <c r="AU92">
-        <v>11</v>
-      </c>
-      <c r="AW92">
-        <v>3</v>
-      </c>
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
@@ -7398,12 +7131,6 @@
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
-      <c r="AU93">
-        <v>12</v>
-      </c>
-      <c r="AW93">
-        <v>3</v>
-      </c>
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
@@ -7449,12 +7176,6 @@
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
-      <c r="AU94">
-        <v>13</v>
-      </c>
-      <c r="AW94">
-        <v>7</v>
-      </c>
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
@@ -7500,12 +7221,6 @@
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
-      <c r="AU95">
-        <v>14</v>
-      </c>
-      <c r="AW95">
-        <v>5</v>
-      </c>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
@@ -7551,12 +7266,6 @@
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
-      <c r="AU96">
-        <v>15</v>
-      </c>
-      <c r="AW96">
-        <v>8</v>
-      </c>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
@@ -7602,12 +7311,6 @@
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
-      <c r="AU97">
-        <v>16</v>
-      </c>
-      <c r="AW97">
-        <v>5</v>
-      </c>
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
@@ -7653,12 +7356,6 @@
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
-      <c r="AU98">
-        <v>17</v>
-      </c>
-      <c r="AW98">
-        <v>5</v>
-      </c>
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
@@ -7704,12 +7401,6 @@
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
-      <c r="AU99">
-        <v>18</v>
-      </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
@@ -7755,12 +7446,6 @@
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
-      <c r="AU100">
-        <v>19</v>
-      </c>
-      <c r="AW100">
-        <v>4</v>
-      </c>
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
@@ -7806,12 +7491,6 @@
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
-      <c r="AU101">
-        <v>20</v>
-      </c>
-      <c r="AW101">
-        <v>3</v>
-      </c>
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
@@ -7857,12 +7536,6 @@
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
-      <c r="AU102">
-        <v>21</v>
-      </c>
-      <c r="AW102">
-        <v>2</v>
-      </c>
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
@@ -7908,12 +7581,6 @@
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
-      <c r="AU103">
-        <v>22</v>
-      </c>
-      <c r="AW103">
-        <v>6</v>
-      </c>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
@@ -7959,12 +7626,6 @@
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
-      <c r="AU104">
-        <v>23</v>
-      </c>
-      <c r="AW104">
-        <v>2</v>
-      </c>
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
@@ -8010,12 +7671,6 @@
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
-      <c r="AU105">
-        <v>24</v>
-      </c>
-      <c r="AW105">
-        <v>4</v>
-      </c>
       <c r="AX105" s="1"/>
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
@@ -8061,12 +7716,6 @@
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
-      <c r="AU106">
-        <v>25</v>
-      </c>
-      <c r="AW106">
-        <v>2</v>
-      </c>
       <c r="AX106" s="1"/>
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
@@ -8112,12 +7761,6 @@
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
-      <c r="AU107">
-        <v>26</v>
-      </c>
-      <c r="AW107">
-        <v>4</v>
-      </c>
       <c r="AX107" s="1"/>
       <c r="AY107" s="1"/>
       <c r="AZ107" s="1"/>
@@ -8163,12 +7806,6 @@
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
-      <c r="AU108">
-        <v>27</v>
-      </c>
-      <c r="AW108">
-        <v>4</v>
-      </c>
       <c r="AX108" s="1"/>
       <c r="AY108" s="1"/>
       <c r="AZ108" s="1"/>
@@ -8185,12 +7822,6 @@
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
-      <c r="AU109">
-        <v>28</v>
-      </c>
-      <c r="AW109">
-        <v>2</v>
-      </c>
       <c r="AX109" s="1"/>
       <c r="AY109" s="1"/>
       <c r="AZ109" s="1"/>
@@ -8211,12 +7842,6 @@
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
-      <c r="AU110">
-        <v>29</v>
-      </c>
-      <c r="AW110">
-        <v>2</v>
-      </c>
       <c r="AX110" s="1"/>
       <c r="AY110" s="1"/>
       <c r="AZ110" s="1"/>
@@ -8233,12 +7858,6 @@
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
-      <c r="AU111">
-        <v>30</v>
-      </c>
-      <c r="AW111">
-        <v>4</v>
-      </c>
       <c r="AX111" s="1"/>
       <c r="AY111" s="1"/>
       <c r="AZ111" s="1"/>
@@ -8272,23 +7891,7 @@
       <c r="BH112" s="1"/>
       <c r="BI112" s="1"/>
     </row>
-    <row r="113" spans="17:61" ht="14.25" customHeight="1">
-      <c r="Q113" t="s">
-        <v>65</v>
-      </c>
-      <c r="S113">
-        <v>1</v>
-      </c>
-      <c r="U113">
-        <v>4</v>
-      </c>
-      <c r="W113" t="s">
-        <v>62</v>
-      </c>
-      <c r="X113">
-        <f>AVERAGE(U113:U142)</f>
-        <v>2.7333333333333334</v>
-      </c>
+    <row r="113" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
@@ -8304,20 +7907,7 @@
       <c r="BH113" s="1"/>
       <c r="BI113" s="1"/>
     </row>
-    <row r="114" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>2</v>
-      </c>
-      <c r="W114" t="s">
-        <v>63</v>
-      </c>
-      <c r="X114">
-        <f>_xlfn.VAR.S(U113:U142)</f>
-        <v>1.2367816091954025</v>
-      </c>
+    <row r="114" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
@@ -8333,13 +7923,7 @@
       <c r="BH114" s="1"/>
       <c r="BI114" s="1"/>
     </row>
-    <row r="115" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S115">
-        <v>3</v>
-      </c>
-      <c r="U115">
-        <v>3</v>
-      </c>
+    <row r="115" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
@@ -8355,13 +7939,7 @@
       <c r="BH115" s="1"/>
       <c r="BI115" s="1"/>
     </row>
-    <row r="116" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S116">
-        <v>4</v>
-      </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
+    <row r="116" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
@@ -8377,35 +7955,13 @@
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
     </row>
-    <row r="117" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S117">
-        <v>5</v>
-      </c>
-      <c r="U117">
-        <v>3</v>
-      </c>
+    <row r="117" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
-      <c r="AS117" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU117">
-        <v>1</v>
-      </c>
-      <c r="AW117">
-        <v>5</v>
-      </c>
       <c r="AX117" s="1"/>
-      <c r="AY117" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ117">
-        <f>AVERAGE(AW117:AW146)</f>
-        <v>3.9</v>
-      </c>
       <c r="BA117" s="1"/>
       <c r="BE117" s="1"/>
       <c r="BF117" s="1"/>
@@ -8413,32 +7969,13 @@
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
     </row>
-    <row r="118" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S118">
-        <v>6</v>
-      </c>
-      <c r="U118">
-        <v>4</v>
-      </c>
+    <row r="118" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
-      <c r="AU118">
-        <v>2</v>
-      </c>
-      <c r="AW118">
-        <v>4</v>
-      </c>
       <c r="AX118" s="1"/>
-      <c r="AY118" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ118">
-        <f>_xlfn.VAR.S(AW117:AW146)</f>
-        <v>1.4724137931034478</v>
-      </c>
       <c r="BA118" s="1"/>
       <c r="BE118" s="1"/>
       <c r="BF118" s="1"/>
@@ -8446,24 +7983,12 @@
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
     </row>
-    <row r="119" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S119">
-        <v>7</v>
-      </c>
-      <c r="U119">
-        <v>3</v>
-      </c>
+    <row r="119" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
-      <c r="AU119">
-        <v>3</v>
-      </c>
-      <c r="AW119">
-        <v>6</v>
-      </c>
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
@@ -8474,24 +7999,12 @@
       <c r="BH119" s="1"/>
       <c r="BI119" s="1"/>
     </row>
-    <row r="120" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S120">
-        <v>8</v>
-      </c>
-      <c r="U120">
-        <v>2</v>
-      </c>
+    <row r="120" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
-      <c r="AU120">
-        <v>4</v>
-      </c>
-      <c r="AW120">
-        <v>4</v>
-      </c>
       <c r="AX120" s="1"/>
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
@@ -8502,24 +8015,12 @@
       <c r="BH120" s="1"/>
       <c r="BI120" s="1"/>
     </row>
-    <row r="121" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S121">
-        <v>9</v>
-      </c>
-      <c r="U121">
-        <v>4</v>
-      </c>
+    <row r="121" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
-      <c r="AU121">
-        <v>5</v>
-      </c>
-      <c r="AW121">
-        <v>3</v>
-      </c>
       <c r="AX121" s="1"/>
       <c r="AY121" s="1"/>
       <c r="AZ121" s="1"/>
@@ -8530,24 +8031,12 @@
       <c r="BH121" s="1"/>
       <c r="BI121" s="1"/>
     </row>
-    <row r="122" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S122">
-        <v>10</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
+    <row r="122" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
-      <c r="AU122">
-        <v>6</v>
-      </c>
-      <c r="AW122">
-        <v>3</v>
-      </c>
       <c r="AX122" s="1"/>
       <c r="AY122" s="1"/>
       <c r="AZ122" s="1"/>
@@ -8558,24 +8047,12 @@
       <c r="BH122" s="1"/>
       <c r="BI122" s="1"/>
     </row>
-    <row r="123" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S123">
-        <v>11</v>
-      </c>
-      <c r="U123">
-        <v>3</v>
-      </c>
+    <row r="123" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
-      <c r="AU123">
-        <v>7</v>
-      </c>
-      <c r="AW123">
-        <v>5</v>
-      </c>
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
       <c r="AZ123" s="1"/>
@@ -8586,24 +8063,12 @@
       <c r="BH123" s="1"/>
       <c r="BI123" s="1"/>
     </row>
-    <row r="124" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S124">
-        <v>12</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
+    <row r="124" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
-      <c r="AU124">
-        <v>8</v>
-      </c>
-      <c r="AW124">
-        <v>3</v>
-      </c>
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
       <c r="AZ124" s="1"/>
@@ -8614,24 +8079,12 @@
       <c r="BH124" s="1"/>
       <c r="BI124" s="1"/>
     </row>
-    <row r="125" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S125">
-        <v>13</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
+    <row r="125" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
-      <c r="AU125">
-        <v>9</v>
-      </c>
-      <c r="AW125">
-        <v>7</v>
-      </c>
       <c r="AX125" s="1"/>
       <c r="AY125" s="1"/>
       <c r="AZ125" s="1"/>
@@ -8642,24 +8095,12 @@
       <c r="BH125" s="1"/>
       <c r="BI125" s="1"/>
     </row>
-    <row r="126" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S126">
-        <v>14</v>
-      </c>
-      <c r="U126">
-        <v>4</v>
-      </c>
+    <row r="126" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF126" s="1"/>
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
-      <c r="AU126">
-        <v>10</v>
-      </c>
-      <c r="AW126">
-        <v>4</v>
-      </c>
       <c r="AX126" s="1"/>
       <c r="AY126" s="1"/>
       <c r="AZ126" s="1"/>
@@ -8670,24 +8111,12 @@
       <c r="BH126" s="1"/>
       <c r="BI126" s="1"/>
     </row>
-    <row r="127" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S127">
-        <v>15</v>
-      </c>
-      <c r="U127">
-        <v>2</v>
-      </c>
+    <row r="127" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF127" s="1"/>
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
-      <c r="AU127">
-        <v>11</v>
-      </c>
-      <c r="AW127">
-        <v>3</v>
-      </c>
       <c r="AX127" s="1"/>
       <c r="AY127" s="1"/>
       <c r="AZ127" s="1"/>
@@ -8698,24 +8127,12 @@
       <c r="BH127" s="1"/>
       <c r="BI127" s="1"/>
     </row>
-    <row r="128" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S128">
-        <v>16</v>
-      </c>
-      <c r="U128">
-        <v>4</v>
-      </c>
+    <row r="128" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF128" s="1"/>
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
-      <c r="AU128">
-        <v>12</v>
-      </c>
-      <c r="AW128">
-        <v>4</v>
-      </c>
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
       <c r="AZ128" s="1"/>
@@ -8726,24 +8143,12 @@
       <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
     </row>
-    <row r="129" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S129">
-        <v>17</v>
-      </c>
-      <c r="U129">
-        <v>2</v>
-      </c>
+    <row r="129" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF129" s="1"/>
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
-      <c r="AU129">
-        <v>13</v>
-      </c>
-      <c r="AW129">
-        <v>4</v>
-      </c>
       <c r="AX129" s="1"/>
       <c r="AY129" s="1"/>
       <c r="AZ129" s="1"/>
@@ -8754,24 +8159,12 @@
       <c r="BH129" s="1"/>
       <c r="BI129" s="1"/>
     </row>
-    <row r="130" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S130">
-        <v>18</v>
-      </c>
-      <c r="U130">
-        <v>4</v>
-      </c>
+    <row r="130" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
-      <c r="AU130">
-        <v>14</v>
-      </c>
-      <c r="AW130">
-        <v>3</v>
-      </c>
       <c r="AX130" s="1"/>
       <c r="AY130" s="1"/>
       <c r="AZ130" s="1"/>
@@ -8782,24 +8175,12 @@
       <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
     </row>
-    <row r="131" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S131">
-        <v>19</v>
-      </c>
-      <c r="U131">
-        <v>5</v>
-      </c>
+    <row r="131" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF131" s="1"/>
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
-      <c r="AU131">
-        <v>15</v>
-      </c>
-      <c r="AW131">
-        <v>4</v>
-      </c>
       <c r="AX131" s="1"/>
       <c r="AY131" s="1"/>
       <c r="AZ131" s="1"/>
@@ -8810,24 +8191,12 @@
       <c r="BH131" s="1"/>
       <c r="BI131" s="1"/>
     </row>
-    <row r="132" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S132">
-        <v>20</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
+    <row r="132" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AU132">
-        <v>16</v>
-      </c>
-      <c r="AW132">
-        <v>3</v>
-      </c>
       <c r="AX132" s="1"/>
       <c r="AY132" s="1"/>
       <c r="AZ132" s="1"/>
@@ -8838,24 +8207,12 @@
       <c r="BH132" s="1"/>
       <c r="BI132" s="1"/>
     </row>
-    <row r="133" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S133">
-        <v>21</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
+    <row r="133" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
-      <c r="AU133">
-        <v>17</v>
-      </c>
-      <c r="AW133">
-        <v>3</v>
-      </c>
       <c r="AX133" s="1"/>
       <c r="AY133" s="1"/>
       <c r="AZ133" s="1"/>
@@ -8866,24 +8223,12 @@
       <c r="BH133" s="1"/>
       <c r="BI133" s="1"/>
     </row>
-    <row r="134" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S134">
-        <v>22</v>
-      </c>
-      <c r="U134">
-        <v>3</v>
-      </c>
+    <row r="134" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
-      <c r="AU134">
-        <v>18</v>
-      </c>
-      <c r="AW134">
-        <v>4</v>
-      </c>
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
@@ -8894,24 +8239,12 @@
       <c r="BH134" s="1"/>
       <c r="BI134" s="1"/>
     </row>
-    <row r="135" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S135">
-        <v>23</v>
-      </c>
-      <c r="U135">
-        <v>1</v>
-      </c>
+    <row r="135" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
-      <c r="AU135">
-        <v>19</v>
-      </c>
-      <c r="AW135">
-        <v>3</v>
-      </c>
       <c r="AX135" s="1"/>
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
@@ -8922,24 +8255,12 @@
       <c r="BH135" s="1"/>
       <c r="BI135" s="1"/>
     </row>
-    <row r="136" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S136">
-        <v>24</v>
-      </c>
-      <c r="U136">
-        <v>2</v>
-      </c>
+    <row r="136" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
-      <c r="AU136">
-        <v>20</v>
-      </c>
-      <c r="AW136">
-        <v>5</v>
-      </c>
       <c r="AX136" s="1"/>
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
@@ -8950,24 +8271,12 @@
       <c r="BH136" s="1"/>
       <c r="BI136" s="1"/>
     </row>
-    <row r="137" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S137">
-        <v>25</v>
-      </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
+    <row r="137" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF137" s="1"/>
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
-      <c r="AU137">
-        <v>21</v>
-      </c>
-      <c r="AW137">
-        <v>3</v>
-      </c>
       <c r="AX137" s="1"/>
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
@@ -8978,24 +8287,12 @@
       <c r="BH137" s="1"/>
       <c r="BI137" s="1"/>
     </row>
-    <row r="138" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S138">
-        <v>26</v>
-      </c>
-      <c r="U138">
-        <v>4</v>
-      </c>
+    <row r="138" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF138" s="1"/>
       <c r="AG138" s="1"/>
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
-      <c r="AU138">
-        <v>22</v>
-      </c>
-      <c r="AW138">
-        <v>4</v>
-      </c>
       <c r="AX138" s="1"/>
       <c r="AY138" s="1"/>
       <c r="AZ138" s="1"/>
@@ -9006,24 +8303,12 @@
       <c r="BH138" s="1"/>
       <c r="BI138" s="1"/>
     </row>
-    <row r="139" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S139">
-        <v>27</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
+    <row r="139" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF139" s="1"/>
       <c r="AG139" s="1"/>
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
-      <c r="AU139">
-        <v>23</v>
-      </c>
-      <c r="AW139">
-        <v>0</v>
-      </c>
       <c r="AX139" s="1"/>
       <c r="AY139" s="1"/>
       <c r="AZ139" s="1"/>
@@ -9034,24 +8319,12 @@
       <c r="BH139" s="1"/>
       <c r="BI139" s="1"/>
     </row>
-    <row r="140" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S140">
-        <v>28</v>
-      </c>
-      <c r="U140">
-        <v>2</v>
-      </c>
+    <row r="140" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF140" s="1"/>
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
-      <c r="AU140">
-        <v>24</v>
-      </c>
-      <c r="AW140">
-        <v>5</v>
-      </c>
       <c r="AX140" s="1"/>
       <c r="AY140" s="1"/>
       <c r="AZ140" s="1"/>
@@ -9062,24 +8335,12 @@
       <c r="BH140" s="1"/>
       <c r="BI140" s="1"/>
     </row>
-    <row r="141" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S141">
-        <v>29</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
+    <row r="141" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF141" s="1"/>
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
-      <c r="AU141">
-        <v>25</v>
-      </c>
-      <c r="AW141">
-        <v>4</v>
-      </c>
       <c r="AX141" s="1"/>
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
@@ -9090,24 +8351,12 @@
       <c r="BH141" s="1"/>
       <c r="BI141" s="1"/>
     </row>
-    <row r="142" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S142">
-        <v>30</v>
-      </c>
-      <c r="U142">
-        <v>4</v>
-      </c>
+    <row r="142" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF142" s="1"/>
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
-      <c r="AU142">
-        <v>26</v>
-      </c>
-      <c r="AW142">
-        <v>4</v>
-      </c>
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
       <c r="AZ142" s="1"/>
@@ -9118,7 +8367,7 @@
       <c r="BH142" s="1"/>
       <c r="BI142" s="1"/>
     </row>
-    <row r="143" spans="19:61" ht="14.25" customHeight="1">
+    <row r="143" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF143" s="1"/>
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
@@ -9140,7 +8389,7 @@
       <c r="BH143" s="1"/>
       <c r="BI143" s="1"/>
     </row>
-    <row r="144" spans="19:61" ht="14.25" customHeight="1">
+    <row r="144" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF144" s="1"/>
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
@@ -9162,7 +8411,7 @@
       <c r="BH144" s="1"/>
       <c r="BI144" s="1"/>
     </row>
-    <row r="145" spans="17:61" ht="14.25" customHeight="1">
+    <row r="145" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF145" s="1"/>
       <c r="AG145" s="1"/>
       <c r="AH145" s="1"/>
@@ -9184,23 +8433,7 @@
       <c r="BH145" s="1"/>
       <c r="BI145" s="1"/>
     </row>
-    <row r="146" spans="17:61" ht="14.25" customHeight="1">
-      <c r="Q146" t="s">
-        <v>66</v>
-      </c>
-      <c r="S146">
-        <v>1</v>
-      </c>
-      <c r="U146">
-        <v>1</v>
-      </c>
-      <c r="W146" t="s">
-        <v>62</v>
-      </c>
-      <c r="X146">
-        <f>AVERAGE(U146:U175)</f>
-        <v>1.0333333333333334</v>
-      </c>
+    <row r="146" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF146" s="1"/>
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
@@ -9222,20 +8455,7 @@
       <c r="BH146" s="1"/>
       <c r="BI146" s="1"/>
     </row>
-    <row r="147" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>2</v>
-      </c>
-      <c r="W147" t="s">
-        <v>63</v>
-      </c>
-      <c r="X147">
-        <f>_xlfn.VAR.S(U146:U175)</f>
-        <v>0.58505747126436791</v>
-      </c>
+    <row r="147" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF147" s="1"/>
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
@@ -9251,13 +8471,7 @@
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
     </row>
-    <row r="148" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S148">
-        <v>3</v>
-      </c>
-      <c r="U148">
-        <v>2</v>
-      </c>
+    <row r="148" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF148" s="1"/>
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
@@ -9273,13 +8487,7 @@
       <c r="BH148" s="1"/>
       <c r="BI148" s="1"/>
     </row>
-    <row r="149" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S149">
-        <v>4</v>
-      </c>
-      <c r="U149">
-        <v>2</v>
-      </c>
+    <row r="149" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
@@ -9295,13 +8503,7 @@
       <c r="BH149" s="1"/>
       <c r="BI149" s="1"/>
     </row>
-    <row r="150" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S150">
-        <v>5</v>
-      </c>
-      <c r="U150">
-        <v>1</v>
-      </c>
+    <row r="150" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
       <c r="AH150" s="1"/>
@@ -9317,13 +8519,7 @@
       <c r="BH150" s="1"/>
       <c r="BI150" s="1"/>
     </row>
-    <row r="151" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S151">
-        <v>6</v>
-      </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
+    <row r="151" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF151" s="1"/>
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
@@ -9340,13 +8536,7 @@
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
     </row>
-    <row r="152" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S152">
-        <v>7</v>
-      </c>
-      <c r="U152">
-        <v>1</v>
-      </c>
+    <row r="152" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF152" s="1"/>
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
@@ -9363,13 +8553,7 @@
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
     </row>
-    <row r="153" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S153">
-        <v>8</v>
-      </c>
-      <c r="U153">
-        <v>1</v>
-      </c>
+    <row r="153" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF153" s="1"/>
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
@@ -9386,13 +8570,7 @@
       <c r="BH153" s="1"/>
       <c r="BI153" s="1"/>
     </row>
-    <row r="154" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S154">
-        <v>9</v>
-      </c>
-      <c r="U154">
-        <v>0</v>
-      </c>
+    <row r="154" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF154" s="1"/>
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
@@ -9409,13 +8587,7 @@
       <c r="BH154" s="1"/>
       <c r="BI154" s="1"/>
     </row>
-    <row r="155" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S155">
-        <v>10</v>
-      </c>
-      <c r="U155">
-        <v>1</v>
-      </c>
+    <row r="155" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF155" s="1"/>
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
@@ -9432,13 +8604,7 @@
       <c r="BH155" s="1"/>
       <c r="BI155" s="1"/>
     </row>
-    <row r="156" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S156">
-        <v>11</v>
-      </c>
-      <c r="U156">
-        <v>1</v>
-      </c>
+    <row r="156" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF156" s="1"/>
       <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
@@ -9455,13 +8621,7 @@
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
     </row>
-    <row r="157" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S157">
-        <v>12</v>
-      </c>
-      <c r="U157">
-        <v>1</v>
-      </c>
+    <row r="157" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF157" s="1"/>
       <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
@@ -9478,13 +8638,7 @@
       <c r="BH157" s="1"/>
       <c r="BI157" s="1"/>
     </row>
-    <row r="158" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S158">
-        <v>13</v>
-      </c>
-      <c r="U158">
-        <v>1</v>
-      </c>
+    <row r="158" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
@@ -9501,13 +8655,7 @@
       <c r="BH158" s="1"/>
       <c r="BI158" s="1"/>
     </row>
-    <row r="159" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S159">
-        <v>14</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
+    <row r="159" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
@@ -9524,13 +8672,7 @@
       <c r="BH159" s="1"/>
       <c r="BI159" s="1"/>
     </row>
-    <row r="160" spans="17:61" ht="14.25" customHeight="1">
-      <c r="S160">
-        <v>15</v>
-      </c>
-      <c r="U160">
-        <v>0</v>
-      </c>
+    <row r="160" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF160" s="1"/>
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
@@ -9547,13 +8689,7 @@
       <c r="BH160" s="1"/>
       <c r="BI160" s="1"/>
     </row>
-    <row r="161" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S161">
-        <v>16</v>
-      </c>
-      <c r="U161">
-        <v>1</v>
-      </c>
+    <row r="161" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF161" s="1"/>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
@@ -9570,13 +8706,7 @@
       <c r="BH161" s="1"/>
       <c r="BI161" s="1"/>
     </row>
-    <row r="162" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S162">
-        <v>17</v>
-      </c>
-      <c r="U162">
-        <v>2</v>
-      </c>
+    <row r="162" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF162" s="1"/>
       <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
@@ -9593,13 +8723,7 @@
       <c r="BH162" s="1"/>
       <c r="BI162" s="1"/>
     </row>
-    <row r="163" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S163">
-        <v>18</v>
-      </c>
-      <c r="U163">
-        <v>1</v>
-      </c>
+    <row r="163" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF163" s="1"/>
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
@@ -9616,13 +8740,7 @@
       <c r="BH163" s="1"/>
       <c r="BI163" s="1"/>
     </row>
-    <row r="164" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S164">
-        <v>19</v>
-      </c>
-      <c r="U164">
-        <v>2</v>
-      </c>
+    <row r="164" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF164" s="1"/>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
@@ -9639,13 +8757,7 @@
       <c r="BH164" s="1"/>
       <c r="BI164" s="1"/>
     </row>
-    <row r="165" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S165">
-        <v>20</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
+    <row r="165" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF165" s="1"/>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
@@ -9662,13 +8774,7 @@
       <c r="BH165" s="1"/>
       <c r="BI165" s="1"/>
     </row>
-    <row r="166" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S166">
-        <v>21</v>
-      </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
+    <row r="166" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF166" s="1"/>
       <c r="AG166" s="1"/>
       <c r="AH166" s="1"/>
@@ -9685,13 +8791,7 @@
       <c r="BH166" s="1"/>
       <c r="BI166" s="1"/>
     </row>
-    <row r="167" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S167">
-        <v>22</v>
-      </c>
-      <c r="U167">
-        <v>1</v>
-      </c>
+    <row r="167" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF167" s="1"/>
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
@@ -9708,13 +8808,7 @@
       <c r="BH167" s="1"/>
       <c r="BI167" s="1"/>
     </row>
-    <row r="168" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S168">
-        <v>23</v>
-      </c>
-      <c r="U168">
-        <v>2</v>
-      </c>
+    <row r="168" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF168" s="1"/>
       <c r="AG168" s="1"/>
       <c r="AH168" s="1"/>
@@ -9731,13 +8825,7 @@
       <c r="BH168" s="1"/>
       <c r="BI168" s="1"/>
     </row>
-    <row r="169" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S169">
-        <v>24</v>
-      </c>
-      <c r="U169">
-        <v>2</v>
-      </c>
+    <row r="169" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF169" s="1"/>
       <c r="AG169" s="1"/>
       <c r="AH169" s="1"/>
@@ -9754,13 +8842,7 @@
       <c r="BH169" s="1"/>
       <c r="BI169" s="1"/>
     </row>
-    <row r="170" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S170">
-        <v>25</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
+    <row r="170" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF170" s="1"/>
       <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
@@ -9777,13 +8859,7 @@
       <c r="BH170" s="1"/>
       <c r="BI170" s="1"/>
     </row>
-    <row r="171" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S171">
-        <v>26</v>
-      </c>
-      <c r="U171">
-        <v>1</v>
-      </c>
+    <row r="171" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF171" s="1"/>
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
@@ -9800,13 +8876,7 @@
       <c r="BH171" s="1"/>
       <c r="BI171" s="1"/>
     </row>
-    <row r="172" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S172">
-        <v>27</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
+    <row r="172" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF172" s="1"/>
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
@@ -9823,13 +8893,7 @@
       <c r="BH172" s="1"/>
       <c r="BI172" s="1"/>
     </row>
-    <row r="173" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S173">
-        <v>28</v>
-      </c>
-      <c r="U173">
-        <v>1</v>
-      </c>
+    <row r="173" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF173" s="1"/>
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
@@ -9846,13 +8910,7 @@
       <c r="BH173" s="1"/>
       <c r="BI173" s="1"/>
     </row>
-    <row r="174" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S174">
-        <v>29</v>
-      </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
+    <row r="174" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF174" s="1"/>
       <c r="AG174" s="1"/>
       <c r="AH174" s="1"/>
@@ -9869,13 +8927,7 @@
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
     </row>
-    <row r="175" spans="19:61" ht="14.25" customHeight="1">
-      <c r="S175">
-        <v>30</v>
-      </c>
-      <c r="U175">
-        <v>0</v>
-      </c>
+    <row r="175" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF175" s="1"/>
       <c r="AG175" s="1"/>
       <c r="AH175" s="1"/>
@@ -9892,7 +8944,7 @@
       <c r="BH175" s="1"/>
       <c r="BI175" s="1"/>
     </row>
-    <row r="176" spans="19:61" ht="14.25" customHeight="1">
+    <row r="176" spans="32:61" ht="14.25" customHeight="1">
       <c r="AF176" s="1"/>
       <c r="AG176" s="1"/>
       <c r="AH176" s="1"/>
@@ -23919,6 +22971,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="D2:N2"/>
@@ -23926,11 +22983,6 @@
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="AN3:AS3"/>
     <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PLANO DEL SISTEMA- CINE2.xlsx
+++ b/PLANO DEL SISTEMA- CINE2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f87ca329e5780eae/Documentos/GitHub/Simulaci-n-de-Cinepolis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D098253-8DE5-4574-B3C5-4C4EA910B0F9}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{44F4F207-FB4D-4BB8-A485-F0C42FC1DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F93DE2-AF2F-4750-86BD-9EFC67A450BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -316,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -481,12 +481,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +588,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,19 +609,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,48 +1058,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AP94" sqref="AP94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" customWidth="1"/>
-    <col min="26" max="32" width="9.7109375" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" customWidth="1"/>
-    <col min="34" max="36" width="9.7109375" customWidth="1"/>
-    <col min="37" max="39" width="10.7109375" customWidth="1"/>
-    <col min="40" max="40" width="9.5703125" customWidth="1"/>
-    <col min="41" max="41" width="8.42578125" customWidth="1"/>
-    <col min="42" max="42" width="7.7109375" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" customWidth="1"/>
+    <col min="5" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" customWidth="1"/>
+    <col min="26" max="32" width="9.6640625" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" customWidth="1"/>
+    <col min="34" max="36" width="9.6640625" customWidth="1"/>
+    <col min="37" max="39" width="10.6640625" customWidth="1"/>
+    <col min="40" max="40" width="9.5546875" customWidth="1"/>
+    <col min="41" max="41" width="8.44140625" customWidth="1"/>
+    <col min="42" max="42" width="7.6640625" customWidth="1"/>
+    <col min="43" max="43" width="10.6640625" customWidth="1"/>
     <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" customWidth="1"/>
-    <col min="46" max="47" width="14.140625" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="50" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="7.7109375" customWidth="1"/>
-    <col min="52" max="52" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="9.33203125" customWidth="1"/>
+    <col min="46" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" customWidth="1"/>
+    <col min="49" max="49" width="9.33203125" customWidth="1"/>
+    <col min="50" max="50" width="8.6640625" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" customWidth="1"/>
     <col min="53" max="53" width="11" customWidth="1"/>
-    <col min="54" max="56" width="10.7109375" customWidth="1"/>
-    <col min="57" max="57" width="8.28515625" customWidth="1"/>
-    <col min="58" max="58" width="9.7109375" customWidth="1"/>
+    <col min="54" max="56" width="10.6640625" customWidth="1"/>
+    <col min="57" max="57" width="8.33203125" customWidth="1"/>
+    <col min="58" max="58" width="9.6640625" customWidth="1"/>
     <col min="59" max="59" width="8" customWidth="1"/>
-    <col min="60" max="61" width="9.7109375" customWidth="1"/>
-    <col min="62" max="63" width="10.7109375" customWidth="1"/>
-    <col min="64" max="64" width="9.7109375" customWidth="1"/>
-    <col min="65" max="66" width="8.7109375" customWidth="1"/>
+    <col min="60" max="61" width="9.6640625" customWidth="1"/>
+    <col min="62" max="63" width="10.6640625" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" customWidth="1"/>
+    <col min="65" max="66" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:68" ht="14.25" customHeight="1">
@@ -1103,19 +1120,19 @@
       <c r="BI1" s="1"/>
     </row>
     <row r="2" spans="4:68" ht="14.25" customHeight="1">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -1173,52 +1190,52 @@
       <c r="N3" s="2">
         <v>11</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="61"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="57"/>
-      <c r="AN3" s="50" t="s">
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="61"/>
+      <c r="AN3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="57"/>
-      <c r="AW3" s="50" t="s">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="61"/>
+      <c r="AW3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="57"/>
-      <c r="BE3" s="50" t="s">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="61"/>
+      <c r="BE3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="51"/>
-      <c r="BH3" s="51"/>
-      <c r="BI3" s="52"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="57"/>
+      <c r="BH3" s="57"/>
+      <c r="BI3" s="58"/>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="33"/>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
       <c r="BO3" s="33"/>
       <c r="BP3" s="33"/>
     </row>
@@ -1608,12 +1625,12 @@
       <c r="BP6" s="33"/>
     </row>
     <row r="7" spans="4:68" ht="14.25" customHeight="1">
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="T7" s="7">
         <v>3</v>
       </c>
@@ -3222,11 +3239,11 @@
       <c r="BP17" s="33"/>
     </row>
     <row r="18" spans="1:68" ht="14.25" customHeight="1">
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="Q18" s="3" t="s">
         <v>1</v>
       </c>
@@ -3523,12 +3540,12 @@
     </row>
     <row r="20" spans="1:68" ht="14.25" customHeight="1">
       <c r="D20" s="23"/>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
       <c r="Q20" s="3"/>
       <c r="T20" s="7">
         <v>16</v>
@@ -4861,14 +4878,14 @@
       <c r="BP28" s="33"/>
     </row>
     <row r="29" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
       <c r="M29" s="23"/>
       <c r="O29" s="23"/>
       <c r="Q29" s="3"/>
@@ -5016,7 +5033,7 @@
       <c r="BP29" s="33"/>
     </row>
     <row r="30" spans="1:68" ht="14.25" customHeight="1">
-      <c r="B30" s="61"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -6454,6 +6471,9 @@
       <c r="Q78" t="s">
         <v>64</v>
       </c>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="62"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -6486,13 +6506,13 @@
         <f>(H79*100)/251</f>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="62">
         <v>1</v>
       </c>
-      <c r="T79" t="s">
+      <c r="T79" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="62">
         <v>7</v>
       </c>
       <c r="W79" t="s">
@@ -6535,13 +6555,13 @@
         <f>(H80*I112)/H112</f>
         <v>6.7729083665338647</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="62">
         <v>2</v>
       </c>
-      <c r="T80" t="s">
+      <c r="T80" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="62">
         <v>17</v>
       </c>
       <c r="W80" t="s">
@@ -6584,13 +6604,13 @@
         <f>(H81*100)/251</f>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="62">
         <v>3</v>
       </c>
-      <c r="T81" t="s">
+      <c r="T81" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="62">
         <v>7</v>
       </c>
       <c r="AF81" s="1"/>
@@ -6626,13 +6646,13 @@
         <f t="shared" ref="L82:L108" si="11">(H82*100)/251</f>
         <v>3.9840637450199203</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="62">
         <v>4</v>
       </c>
-      <c r="T82" t="s">
+      <c r="T82" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="62">
         <v>10</v>
       </c>
       <c r="AF82" s="1"/>
@@ -6669,13 +6689,13 @@
         <f t="shared" si="11"/>
         <v>1.9920318725099602</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="62">
         <v>5</v>
       </c>
-      <c r="T83" t="s">
+      <c r="T83" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="62">
         <v>5</v>
       </c>
       <c r="AF83" s="1"/>
@@ -6712,13 +6732,13 @@
         <f t="shared" si="11"/>
         <v>5.5776892430278888</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="62">
         <v>6</v>
       </c>
-      <c r="T84" t="s">
+      <c r="T84" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="62">
         <v>14</v>
       </c>
       <c r="AF84" s="1"/>
@@ -6757,13 +6777,13 @@
         <f t="shared" si="11"/>
         <v>1.593625498007968</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="62">
         <v>7</v>
       </c>
-      <c r="T85" t="s">
+      <c r="T85" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="62">
         <v>4</v>
       </c>
       <c r="AF85" s="1"/>
@@ -6802,13 +6822,13 @@
         <f t="shared" si="11"/>
         <v>3.1872509960159361</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="62">
         <v>8</v>
       </c>
-      <c r="T86" s="37" t="s">
+      <c r="T86" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="62">
         <v>8</v>
       </c>
       <c r="AF86" s="1"/>
@@ -6847,13 +6867,13 @@
         <f t="shared" si="11"/>
         <v>3.1872509960159361</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="62">
         <v>9</v>
       </c>
-      <c r="T87" t="s">
+      <c r="T87" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="62">
         <v>8</v>
       </c>
       <c r="AF87" s="1"/>
@@ -6892,13 +6912,13 @@
         <f t="shared" si="11"/>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="62">
         <v>10</v>
       </c>
-      <c r="T88" t="s">
+      <c r="T88" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="62">
         <v>7</v>
       </c>
       <c r="AF88" s="1"/>
@@ -6937,13 +6957,13 @@
         <f t="shared" si="11"/>
         <v>3.9840637450199203</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="62">
         <v>11</v>
       </c>
-      <c r="T89" t="s">
+      <c r="T89" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="62">
         <v>10</v>
       </c>
       <c r="AF89" s="1"/>
@@ -6982,13 +7002,13 @@
         <f t="shared" si="11"/>
         <v>4.7808764940239046</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="62">
         <v>12</v>
       </c>
-      <c r="T90" t="s">
+      <c r="T90" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="62">
         <v>12</v>
       </c>
       <c r="AF90" s="1"/>
@@ -7027,13 +7047,13 @@
         <f t="shared" si="11"/>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="62">
         <v>13</v>
       </c>
-      <c r="T91" t="s">
+      <c r="T91" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="U91">
+      <c r="U91" s="62">
         <v>7</v>
       </c>
       <c r="AF91" s="1"/>
@@ -7072,13 +7092,13 @@
         <f t="shared" si="11"/>
         <v>3.1872509960159361</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="62">
         <v>14</v>
       </c>
-      <c r="T92" t="s">
+      <c r="T92" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="62">
         <v>8</v>
       </c>
       <c r="AF92" s="1"/>
@@ -7117,13 +7137,13 @@
         <f t="shared" si="11"/>
         <v>3.9840637450199203</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="62">
         <v>15</v>
       </c>
-      <c r="T93" t="s">
+      <c r="T93" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="62">
         <v>10</v>
       </c>
       <c r="AF93" s="1"/>
@@ -7162,13 +7182,13 @@
         <f t="shared" si="11"/>
         <v>3.5856573705179282</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="62">
         <v>16</v>
       </c>
-      <c r="T94" s="37" t="s">
+      <c r="T94" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="U94">
+      <c r="U94" s="62">
         <v>9</v>
       </c>
       <c r="AF94" s="1"/>
@@ -7207,13 +7227,13 @@
         <f t="shared" si="11"/>
         <v>4.7808764940239046</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="62">
         <v>17</v>
       </c>
-      <c r="T95" t="s">
+      <c r="T95" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="62">
         <v>12</v>
       </c>
       <c r="AF95" s="1"/>
@@ -7252,13 +7272,13 @@
         <f t="shared" si="11"/>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="62">
         <v>18</v>
       </c>
-      <c r="T96" t="s">
+      <c r="T96" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="U96">
+      <c r="U96" s="62">
         <v>7</v>
       </c>
       <c r="AF96" s="1"/>
@@ -7297,13 +7317,13 @@
         <f t="shared" si="11"/>
         <v>3.1872509960159361</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="62">
         <v>19</v>
       </c>
-      <c r="T97" t="s">
+      <c r="T97" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="U97">
+      <c r="U97" s="62">
         <v>8</v>
       </c>
       <c r="AF97" s="1"/>
@@ -7342,13 +7362,13 @@
         <f t="shared" si="11"/>
         <v>3.9840637450199203</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="62">
         <v>20</v>
       </c>
-      <c r="T98" t="s">
+      <c r="T98" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="U98">
+      <c r="U98" s="62">
         <v>10</v>
       </c>
       <c r="AF98" s="1"/>
@@ -7387,13 +7407,13 @@
         <f t="shared" si="11"/>
         <v>2.3904382470119523</v>
       </c>
-      <c r="S99">
+      <c r="S99" s="62">
         <v>21</v>
       </c>
-      <c r="T99" t="s">
+      <c r="T99" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U99">
+      <c r="U99" s="62">
         <v>6</v>
       </c>
       <c r="AF99" s="1"/>
@@ -7432,13 +7452,13 @@
         <f t="shared" si="11"/>
         <v>3.5856573705179282</v>
       </c>
-      <c r="S100">
+      <c r="S100" s="62">
         <v>22</v>
       </c>
-      <c r="T100" t="s">
+      <c r="T100" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="U100">
+      <c r="U100" s="62">
         <v>9</v>
       </c>
       <c r="AF100" s="1"/>
@@ -7477,13 +7497,13 @@
         <f t="shared" si="11"/>
         <v>1.9920318725099602</v>
       </c>
-      <c r="S101">
+      <c r="S101" s="62">
         <v>23</v>
       </c>
-      <c r="T101" t="s">
+      <c r="T101" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="U101">
+      <c r="U101" s="62">
         <v>5</v>
       </c>
       <c r="AF101" s="1"/>
@@ -7522,13 +7542,13 @@
         <f t="shared" si="11"/>
         <v>2.3904382470119523</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="62">
         <v>24</v>
       </c>
-      <c r="T102" t="s">
+      <c r="T102" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="62">
         <v>6</v>
       </c>
       <c r="AF102" s="1"/>
@@ -7567,13 +7587,13 @@
         <f t="shared" si="11"/>
         <v>3.1872509960159361</v>
       </c>
-      <c r="S103">
+      <c r="S103" s="62">
         <v>25</v>
       </c>
-      <c r="T103" s="37" t="s">
+      <c r="T103" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="U103">
+      <c r="U103" s="62">
         <v>8</v>
       </c>
       <c r="AF103" s="1"/>
@@ -7612,13 +7632,13 @@
         <f t="shared" si="11"/>
         <v>3.9840637450199203</v>
       </c>
-      <c r="S104">
+      <c r="S104" s="62">
         <v>26</v>
       </c>
-      <c r="T104" t="s">
+      <c r="T104" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="U104">
+      <c r="U104" s="62">
         <v>10</v>
       </c>
       <c r="AF104" s="1"/>
@@ -7657,13 +7677,13 @@
         <f t="shared" si="11"/>
         <v>2.7888446215139444</v>
       </c>
-      <c r="S105">
+      <c r="S105" s="62">
         <v>27</v>
       </c>
-      <c r="T105" t="s">
+      <c r="T105" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="U105">
+      <c r="U105" s="62">
         <v>7</v>
       </c>
       <c r="AF105" s="1"/>
@@ -7702,13 +7722,13 @@
         <f t="shared" si="11"/>
         <v>3.5856573705179282</v>
       </c>
-      <c r="S106">
+      <c r="S106" s="62">
         <v>28</v>
       </c>
-      <c r="T106" t="s">
+      <c r="T106" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="U106">
+      <c r="U106" s="62">
         <v>9</v>
       </c>
       <c r="AF106" s="1"/>
@@ -7747,13 +7767,13 @@
         <f t="shared" si="11"/>
         <v>1.9920318725099602</v>
       </c>
-      <c r="S107">
+      <c r="S107" s="62">
         <v>29</v>
       </c>
-      <c r="T107" t="s">
+      <c r="T107" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="U107">
+      <c r="U107" s="62">
         <v>5</v>
       </c>
       <c r="AF107" s="1"/>
@@ -7792,13 +7812,13 @@
         <f t="shared" si="11"/>
         <v>2.3904382470119523</v>
       </c>
-      <c r="S108">
+      <c r="S108" s="62">
         <v>30</v>
       </c>
-      <c r="T108" t="s">
+      <c r="T108" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="U108">
+      <c r="U108" s="62">
         <v>6</v>
       </c>
       <c r="AF108" s="1"/>
@@ -7817,6 +7837,9 @@
       <c r="BI108" s="1"/>
     </row>
     <row r="109" spans="6:61" ht="14.25" customHeight="1">
+      <c r="S109" s="62"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="62"/>
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
@@ -7833,7 +7856,9 @@
       <c r="BI109" s="1"/>
     </row>
     <row r="110" spans="6:61" ht="14.25" customHeight="1">
-      <c r="U110">
+      <c r="S110" s="62"/>
+      <c r="T110" s="62"/>
+      <c r="U110" s="62">
         <f>SUM(U79:U109)</f>
         <v>251</v>
       </c>
@@ -22971,11 +22996,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="BE3:BI3"/>
     <mergeCell ref="BL3:BN3"/>
     <mergeCell ref="D2:N2"/>
@@ -22983,6 +23003,11 @@
     <mergeCell ref="AD3:AJ3"/>
     <mergeCell ref="AN3:AS3"/>
     <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
